--- a/pro2/fund_search/京东金融.xlsx
+++ b/pro2/fund_search/京东金融.xlsx
@@ -404,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W57"/>
+  <dimension ref="A1:W62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -482,551 +482,563 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>010034</v>
+        <v>006719</v>
       </c>
       <c r="B2" t="str">
-        <v>安信成长精选混合C</v>
+        <v>国融融盛龙头严选混合C</v>
       </c>
       <c r="C2" t="str">
-        <v>114.85</v>
+        <v>308.85</v>
       </c>
       <c r="D2" t="str">
-        <v>1.82</v>
+        <v>-0.26</v>
       </c>
       <c r="E2" t="str">
-        <v>1.59%</v>
+        <v>-0.08%</v>
       </c>
       <c r="F2" t="str">
-        <v>5.90</v>
+        <v>-25.65</v>
       </c>
       <c r="G2" t="str">
-        <v>5.41%</v>
+        <v>-7.67%</v>
       </c>
       <c r="H2" t="str">
-        <v>7.72</v>
+        <v>-25.91</v>
       </c>
       <c r="I2" t="str">
-        <v>5.41%</v>
+        <v>-7.67%</v>
       </c>
       <c r="J2" t="str">
-        <v>7.72</v>
+        <v>-3.81</v>
       </c>
       <c r="K2" t="str">
-        <v>7.72</v>
+        <v>-12.00</v>
       </c>
       <c r="L2" t="str">
-        <v>7.72</v>
+        <v>-12.00</v>
       </c>
       <c r="M2" t="str">
-        <v>0.93%</v>
+        <v>2.06%</v>
       </c>
       <c r="N2" t="str">
-        <v>75.28</v>
+        <v>175.68</v>
       </c>
       <c r="O2" t="str">
-        <v>1</v>
+        <v>583</v>
       </c>
       <c r="P2" t="str">
-        <v>1.59%</v>
+        <v>-0.08%</v>
       </c>
       <c r="Q2" t="str">
-        <v>1.5498</v>
+        <v>1.7565</v>
       </c>
       <c r="R2" t="str">
-        <v>1.4473</v>
+        <v>1.9040</v>
+      </c>
+      <c r="S2" t="str">
+        <v>8.31%</v>
       </c>
       <c r="T2" t="str">
-        <v>2.16%</v>
+        <v>-8.60%</v>
       </c>
       <c r="U2" t="str">
-        <v>2.01%</v>
+        <v>-14.61%</v>
       </c>
       <c r="V2" t="str">
-        <v>53.76%</v>
+        <v>-6.07%</v>
       </c>
       <c r="W2" t="str">
-        <v>113.73%</v>
+        <v>-12.40%</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>002611</v>
+        <v>006105</v>
       </c>
       <c r="B3" t="str">
-        <v>博时黄金ETF联接C</v>
+        <v>宏利印度股票(QDII)A</v>
       </c>
       <c r="C3" t="str">
-        <v>142.19</v>
+        <v>229.52</v>
       </c>
       <c r="D3" t="str">
-        <v>0.30</v>
+        <v>0</v>
       </c>
       <c r="E3" t="str">
-        <v>0.21%</v>
+        <v>0%</v>
       </c>
       <c r="F3" t="str">
-        <v>6.52</v>
+        <v>-15.90</v>
       </c>
       <c r="G3" t="str">
-        <v>4.80%</v>
+        <v>-6.48%</v>
       </c>
       <c r="H3" t="str">
-        <v>6.82</v>
+        <v>-15.90</v>
       </c>
       <c r="I3" t="str">
-        <v>4.80%</v>
+        <v>-6.48%</v>
       </c>
       <c r="J3" t="str">
-        <v>3.01</v>
+        <v>-8.21</v>
       </c>
       <c r="K3" t="str">
-        <v>4.88</v>
+        <v>-10.88</v>
       </c>
       <c r="L3" t="str">
-        <v>4.88</v>
+        <v>-10.88</v>
       </c>
       <c r="M3" t="str">
-        <v>1.15%</v>
+        <v>1.53%</v>
       </c>
       <c r="N3" t="str">
-        <v>44.14</v>
+        <v>166.78</v>
       </c>
       <c r="O3" t="str">
-        <v>588</v>
-      </c>
-      <c r="P3" t="str">
-        <v>0.21%</v>
-      </c>
-      <c r="Q3" t="str">
-        <v>3.2281</v>
+        <v>49</v>
       </c>
       <c r="R3" t="str">
-        <v>3.0736</v>
+        <v>1.4715</v>
+      </c>
+      <c r="S3" t="str">
+        <v>6.93%</v>
       </c>
       <c r="T3" t="str">
-        <v>5.81%</v>
+        <v>-5.78%</v>
       </c>
       <c r="U3" t="str">
-        <v>13.21%</v>
+        <v>-8.44%</v>
       </c>
       <c r="V3" t="str">
-        <v>31.32%</v>
+        <v>-10.40%</v>
       </c>
       <c r="W3" t="str">
-        <v>56.88%</v>
+        <v>-4.83%</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>013466</v>
+        <v>007153</v>
       </c>
       <c r="B4" t="str">
-        <v>博时智选量化多因子股票C</v>
+        <v>汇添富中证银行ETF联接A</v>
       </c>
       <c r="C4" t="str">
-        <v>161.88</v>
+        <v>246.31</v>
       </c>
       <c r="D4" t="str">
-        <v>-1.41</v>
+        <v>-2.15</v>
       </c>
       <c r="E4" t="str">
         <v>-0.87%</v>
       </c>
       <c r="F4" t="str">
-        <v>14.67</v>
+        <v>-11.97</v>
       </c>
       <c r="G4" t="str">
-        <v>9.96%</v>
+        <v>-4.64%</v>
       </c>
       <c r="H4" t="str">
-        <v>13.25</v>
+        <v>-14.12</v>
       </c>
       <c r="I4" t="str">
-        <v>9.96%</v>
+        <v>-4.64%</v>
       </c>
       <c r="J4" t="str">
-        <v>0.74</v>
+        <v>-5.76</v>
       </c>
       <c r="K4" t="str">
-        <v>13.92</v>
+        <v>-13.43</v>
       </c>
       <c r="L4" t="str">
-        <v>13.92</v>
+        <v>-13.43</v>
       </c>
       <c r="M4" t="str">
-        <v>1.31%</v>
+        <v>1.64%</v>
       </c>
       <c r="N4" t="str">
-        <v>124.79</v>
+        <v>176.59</v>
       </c>
       <c r="O4" t="str">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="P4" t="str">
         <v>-0.87%</v>
       </c>
       <c r="Q4" t="str">
-        <v>1.2859</v>
+        <v>1.3826</v>
       </c>
       <c r="R4" t="str">
-        <v>1.1797</v>
+        <v>1.4626</v>
+      </c>
+      <c r="S4" t="str">
+        <v>4.86%</v>
       </c>
       <c r="T4" t="str">
-        <v>9.86%</v>
+        <v>-6.51%</v>
       </c>
       <c r="U4" t="str">
-        <v>4.47%</v>
+        <v>-7.87%</v>
       </c>
       <c r="V4" t="str">
-        <v>37.17%</v>
+        <v>-11.65%</v>
       </c>
       <c r="W4" t="str">
-        <v>56.18%</v>
+        <v>3.03%</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>096001</v>
+        <v>501311</v>
       </c>
       <c r="B5" t="str">
-        <v>大成标普500等权重指数(QDII)A人民币</v>
+        <v>嘉实恒生港股通新经济指数(LOF)A</v>
       </c>
       <c r="C5" t="str">
-        <v>113.79</v>
+        <v>58.90</v>
       </c>
       <c r="D5" t="str">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="E5" t="str">
-        <v>0%</v>
+        <v>1.03%</v>
       </c>
       <c r="F5" t="str">
-        <v>3.55</v>
+        <v>-1.63</v>
       </c>
       <c r="G5" t="str">
-        <v>3.22%</v>
+        <v>-2.69%</v>
       </c>
       <c r="H5" t="str">
-        <v>3.55</v>
+        <v>-1.02</v>
       </c>
       <c r="I5" t="str">
-        <v>3.22%</v>
+        <v>-2.69%</v>
       </c>
       <c r="J5" t="str">
-        <v>0.52</v>
+        <v>-0.81</v>
       </c>
       <c r="K5" t="str">
-        <v>1.92</v>
+        <v>2.66</v>
       </c>
       <c r="L5" t="str">
-        <v>1.92</v>
+        <v>2.66</v>
       </c>
       <c r="M5" t="str">
-        <v>0.92%</v>
+        <v>0.39%</v>
       </c>
       <c r="N5" t="str">
-        <v>41.35</v>
+        <v>50.46</v>
       </c>
       <c r="O5" t="str">
-        <v>54</v>
+        <v>583</v>
+      </c>
+      <c r="P5" t="str">
+        <v>1.03%</v>
+      </c>
+      <c r="Q5" t="str">
+        <v>1.1793</v>
       </c>
       <c r="R5" t="str">
-        <v>2.6660</v>
+        <v>1.1996</v>
+      </c>
+      <c r="S5" t="str">
+        <v>2.76%</v>
       </c>
       <c r="T5" t="str">
-        <v>2.77%</v>
+        <v>3.60%</v>
       </c>
       <c r="U5" t="str">
-        <v>2.73%</v>
+        <v>-5.08%</v>
       </c>
       <c r="V5" t="str">
-        <v>4.58%</v>
+        <v>-2.51%</v>
       </c>
       <c r="W5" t="str">
-        <v>9.05%</v>
+        <v>29.75%</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>001614</v>
+        <v>007605</v>
       </c>
       <c r="B6" t="str">
-        <v>东方区域发展混合</v>
+        <v>嘉实沪深300红利低波动ETF联接A</v>
       </c>
       <c r="C6" t="str">
-        <v>374.66</v>
+        <v>69.77</v>
       </c>
       <c r="D6" t="str">
-        <v>3.13</v>
+        <v>-0.68</v>
       </c>
       <c r="E6" t="str">
-        <v>0.84%</v>
+        <v>-0.97%</v>
       </c>
       <c r="F6" t="str">
-        <v>19.55</v>
+        <v>-1.63</v>
       </c>
       <c r="G6" t="str">
-        <v>5.50%</v>
+        <v>-2.29%</v>
       </c>
       <c r="H6" t="str">
-        <v>22.68</v>
+        <v>8.73</v>
       </c>
       <c r="I6" t="str">
-        <v>5.50%</v>
+        <v>-2.29%</v>
       </c>
       <c r="J6" t="str">
-        <v>9.05</v>
+        <v>-0.05</v>
       </c>
       <c r="K6" t="str">
-        <v>29.80</v>
+        <v>-1.70</v>
       </c>
       <c r="L6" t="str">
-        <v>29.80</v>
+        <v>-1.70</v>
       </c>
       <c r="M6" t="str">
-        <v>3.04%</v>
+        <v>0.47%</v>
       </c>
       <c r="N6" t="str">
-        <v>248.33</v>
+        <v>55.55</v>
       </c>
       <c r="O6" t="str">
-        <v>36</v>
+        <v>596</v>
       </c>
       <c r="P6" t="str">
-        <v>0.84%</v>
+        <v>-0.97%</v>
       </c>
       <c r="Q6" t="str">
-        <v>1.5213</v>
+        <v>1.2437</v>
       </c>
       <c r="R6" t="str">
-        <v>1.4300</v>
+        <v>1.2853</v>
+      </c>
+      <c r="S6" t="str">
+        <v>2.34%</v>
       </c>
       <c r="T6" t="str">
-        <v>9.47%</v>
+        <v>-2.56%</v>
       </c>
       <c r="U6" t="str">
-        <v>1.25%</v>
+        <v>-4.64%</v>
       </c>
       <c r="V6" t="str">
-        <v>15.02%</v>
+        <v>-7.49%</v>
       </c>
       <c r="W6" t="str">
-        <v>34.00%</v>
+        <v>0.22%</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>400032</v>
+        <v>017963</v>
       </c>
       <c r="B7" t="str">
-        <v>东方主题精选混合</v>
+        <v>广发医药创新混合发起式C</v>
       </c>
       <c r="C7" t="str">
-        <v>113.83</v>
+        <v>127.13</v>
       </c>
       <c r="D7" t="str">
-        <v>0.97</v>
+        <v>2.46</v>
       </c>
       <c r="E7" t="str">
+        <v>1.93%</v>
+      </c>
+      <c r="F7" t="str">
+        <v>-2.87</v>
+      </c>
+      <c r="G7" t="str">
+        <v>-2.21%</v>
+      </c>
+      <c r="H7" t="str">
+        <v>-0.42</v>
+      </c>
+      <c r="I7" t="str">
+        <v>-2.21%</v>
+      </c>
+      <c r="J7" t="str">
+        <v>-5.48</v>
+      </c>
+      <c r="K7" t="str">
+        <v>5.53</v>
+      </c>
+      <c r="L7" t="str">
+        <v>5.53</v>
+      </c>
+      <c r="M7" t="str">
         <v>0.85%</v>
       </c>
-      <c r="F7" t="str">
-        <v>6.60</v>
-      </c>
-      <c r="G7" t="str">
-        <v>6.15%</v>
-      </c>
-      <c r="H7" t="str">
-        <v>7.56</v>
-      </c>
-      <c r="I7" t="str">
-        <v>6.15%</v>
-      </c>
-      <c r="J7" t="str">
-        <v>-1.48</v>
-      </c>
-      <c r="K7" t="str">
-        <v>8.49</v>
-      </c>
-      <c r="L7" t="str">
-        <v>8.49</v>
-      </c>
-      <c r="M7" t="str">
-        <v>0.92%</v>
-      </c>
       <c r="N7" t="str">
-        <v>96.57</v>
+        <v>103.43</v>
       </c>
       <c r="O7" t="str">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P7" t="str">
-        <v>0.85%</v>
+        <v>1.93%</v>
       </c>
       <c r="Q7" t="str">
-        <v>1.1887</v>
+        <v>1.2528</v>
       </c>
       <c r="R7" t="str">
-        <v>1.1104</v>
+        <v>1.2569</v>
+      </c>
+      <c r="S7" t="str">
+        <v>2.26%</v>
       </c>
       <c r="T7" t="str">
-        <v>8.99%</v>
+        <v>-2.05%</v>
       </c>
       <c r="U7" t="str">
-        <v>3.17%</v>
+        <v>-1.16%</v>
       </c>
       <c r="V7" t="str">
-        <v>16.30%</v>
+        <v>-14.15%</v>
       </c>
       <c r="W7" t="str">
-        <v>34.82%</v>
+        <v>48.12%</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>002170</v>
+        <v>014978</v>
       </c>
       <c r="B8" t="str">
-        <v>东吴移动互联混合C</v>
+        <v>华安纳斯达克100ETF联接(QDII)C</v>
       </c>
       <c r="C8" t="str">
-        <v>122.51</v>
+        <v>283.62</v>
       </c>
       <c r="D8" t="str">
-        <v>-1.57</v>
+        <v>0</v>
       </c>
       <c r="E8" t="str">
-        <v>-1.28%</v>
+        <v>0%</v>
       </c>
       <c r="F8" t="str">
-        <v>9.95</v>
+        <v>-5.04</v>
       </c>
       <c r="G8" t="str">
-        <v>8.84%</v>
+        <v>-1.75%</v>
       </c>
       <c r="H8" t="str">
-        <v>8.38</v>
+        <v>-5.08</v>
       </c>
       <c r="I8" t="str">
-        <v>8.84%</v>
+        <v>-1.75%</v>
       </c>
       <c r="J8" t="str">
         <v>-2.74</v>
       </c>
       <c r="K8" t="str">
-        <v>2.05</v>
+        <v>-5.08</v>
       </c>
       <c r="L8" t="str">
-        <v>2.05</v>
+        <v>-5.08</v>
       </c>
       <c r="M8" t="str">
-        <v>0.99%</v>
+        <v>1.89%</v>
       </c>
       <c r="N8" t="str">
-        <v>19.99</v>
+        <v>39.53</v>
       </c>
       <c r="O8" t="str">
-        <v>573</v>
-      </c>
-      <c r="P8" t="str">
-        <v>-1.28%</v>
-      </c>
-      <c r="Q8" t="str">
-        <v>6.0499</v>
+        <v>8</v>
       </c>
       <c r="R8" t="str">
-        <v>5.6308</v>
+        <v>7.3023</v>
+      </c>
+      <c r="S8" t="str">
+        <v>1.78%</v>
       </c>
       <c r="T8" t="str">
-        <v>5.65%</v>
+        <v>-0.90%</v>
       </c>
       <c r="U8" t="str">
-        <v>5.50%</v>
+        <v>-0.96%</v>
       </c>
       <c r="V8" t="str">
-        <v>72.71%</v>
+        <v>6.17%</v>
       </c>
       <c r="W8" t="str">
-        <v>98.06%</v>
+        <v>11.32%</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>161022</v>
+        <v>021540</v>
       </c>
       <c r="B9" t="str">
-        <v>富国创业板ETF联接A</v>
+        <v>华安法国CAC40ETF发起式联接(QDII)C</v>
       </c>
       <c r="C9" t="str">
-        <v>226.98</v>
+        <v>29.53</v>
       </c>
       <c r="D9" t="str">
-        <v>-1.27</v>
+        <v>0</v>
       </c>
       <c r="E9" t="str">
-        <v>-0.56%</v>
+        <v>0%</v>
       </c>
       <c r="F9" t="str">
-        <v>13.07</v>
+        <v>-0.47</v>
       </c>
       <c r="G9" t="str">
-        <v>6.11%</v>
+        <v>-1.58%</v>
       </c>
       <c r="H9" t="str">
-        <v>11.80</v>
+        <v>-0.47</v>
       </c>
       <c r="I9" t="str">
-        <v>6.11%</v>
+        <v>-1.58%</v>
       </c>
       <c r="J9" t="str">
-        <v>3.44</v>
+        <v>-0.42</v>
       </c>
       <c r="K9" t="str">
-        <v>8.98</v>
+        <v>-0.47</v>
       </c>
       <c r="L9" t="str">
-        <v>8.98</v>
+        <v>-0.47</v>
       </c>
       <c r="M9" t="str">
-        <v>1.84%</v>
+        <v>0.20%</v>
       </c>
       <c r="N9" t="str">
-        <v>185.90</v>
+        <v>26.99</v>
       </c>
       <c r="O9" t="str">
-        <v>588</v>
-      </c>
-      <c r="P9" t="str">
-        <v>-0.56%</v>
-      </c>
-      <c r="Q9" t="str">
-        <v>1.2142</v>
+        <v>14</v>
       </c>
       <c r="R9" t="str">
-        <v>1.1507</v>
+        <v>1.1115</v>
+      </c>
+      <c r="S9" t="str">
+        <v>1.60%</v>
       </c>
       <c r="T9" t="str">
-        <v>5.70%</v>
+        <v>-1.99%</v>
       </c>
       <c r="U9" t="str">
-        <v>8.50%</v>
+        <v>-3.63%</v>
       </c>
       <c r="V9" t="str">
-        <v>50.30%</v>
+        <v>0.03%</v>
       </c>
       <c r="W9" t="str">
-        <v>68.76%</v>
+        <v>14.39%</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>100055</v>
+        <v>015016</v>
       </c>
       <c r="B10" t="str">
-        <v>富国全球科技互联网股票(QDII)A</v>
+        <v>华安国际龙头(DAX)ETF联接C</v>
       </c>
       <c r="C10" t="str">
-        <v>480.52</v>
+        <v>118.29</v>
       </c>
       <c r="D10" t="str">
         <v>0</v>
@@ -1035,60 +1047,63 @@
         <v>0%</v>
       </c>
       <c r="F10" t="str">
-        <v>19.16</v>
+        <v>-1.71</v>
       </c>
       <c r="G10" t="str">
-        <v>4.15%</v>
+        <v>-1.43%</v>
       </c>
       <c r="H10" t="str">
-        <v>19.16</v>
+        <v>-1.71</v>
       </c>
       <c r="I10" t="str">
-        <v>4.15%</v>
+        <v>-1.43%</v>
       </c>
       <c r="J10" t="str">
-        <v>0</v>
+        <v>-1.79</v>
       </c>
       <c r="K10" t="str">
-        <v>18.52</v>
+        <v>-1.71</v>
       </c>
       <c r="L10" t="str">
-        <v>18.52</v>
+        <v>-1.71</v>
       </c>
       <c r="M10" t="str">
-        <v>3.89%</v>
+        <v>0.79%</v>
       </c>
       <c r="N10" t="str">
-        <v>123.80</v>
+        <v>58.83</v>
       </c>
       <c r="O10" t="str">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="R10" t="str">
-        <v>3.7267</v>
+        <v>2.0398</v>
+      </c>
+      <c r="S10" t="str">
+        <v>1.45%</v>
       </c>
       <c r="T10" t="str">
-        <v>3.27%</v>
+        <v>0.04%</v>
       </c>
       <c r="U10" t="str">
-        <v>2.76%</v>
+        <v>-0.74%</v>
       </c>
       <c r="V10" t="str">
-        <v>29.73%</v>
+        <v>-1.85%</v>
       </c>
       <c r="W10" t="str">
-        <v>51.91%</v>
+        <v>22.79%</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>012061</v>
+        <v>040047</v>
       </c>
       <c r="B11" t="str">
-        <v>富国全球消费精选混合(QDII)美元现汇</v>
+        <v>华安纳斯达克100ETF联接(QDII)A(美元现钞)</v>
       </c>
       <c r="C11" t="str">
-        <v>321.76</v>
+        <v>254.77</v>
       </c>
       <c r="D11" t="str">
         <v>0</v>
@@ -1097,196 +1112,205 @@
         <v>0%</v>
       </c>
       <c r="F11" t="str">
-        <v>7.05</v>
+        <v>-2.15</v>
       </c>
       <c r="G11" t="str">
-        <v>2.24%</v>
+        <v>-0.84%</v>
       </c>
       <c r="H11" t="str">
-        <v>7.05</v>
+        <v>0.66</v>
       </c>
       <c r="I11" t="str">
-        <v>2.24%</v>
+        <v>0.26%</v>
       </c>
       <c r="J11" t="str">
-        <v>3.59</v>
+        <v>-2.15</v>
       </c>
       <c r="K11" t="str">
-        <v>11.73</v>
+        <v>0.32</v>
       </c>
       <c r="L11" t="str">
-        <v>11.73</v>
+        <v>0.32</v>
       </c>
       <c r="M11" t="str">
-        <v>2.61%</v>
+        <v>1.70%</v>
       </c>
       <c r="N11" t="str">
-        <v>1327.94</v>
+        <v>243.78</v>
       </c>
       <c r="O11" t="str">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="R11" t="str">
-        <v>0.2370</v>
+        <v>1.0539</v>
+      </c>
+      <c r="S11" t="str">
+        <v>0.84%</v>
       </c>
       <c r="T11" t="str">
-        <v>4.39%</v>
+        <v>-0.12%</v>
       </c>
       <c r="U11" t="str">
-        <v>-2.22%</v>
+        <v>0.38%</v>
       </c>
       <c r="V11" t="str">
-        <v>9.64%</v>
+        <v>8.56%</v>
       </c>
       <c r="W11" t="str">
-        <v>55.12%</v>
+        <v>14.23%</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>013048</v>
+        <v>020422</v>
       </c>
       <c r="B12" t="str">
-        <v>富国中证新能源汽车指数C</v>
+        <v>华夏中证港股通内地金融ETF发起式联接A</v>
       </c>
       <c r="C12" t="str">
-        <v>215.72</v>
+        <v>355.80</v>
       </c>
       <c r="D12" t="str">
-        <v>1.49</v>
+        <v>-1.20</v>
       </c>
       <c r="E12" t="str">
-        <v>0.69%</v>
+        <v>-0.34%</v>
       </c>
       <c r="F12" t="str">
-        <v>12.52</v>
+        <v>-2.67</v>
       </c>
       <c r="G12" t="str">
-        <v>6.16%</v>
+        <v>-0.75%</v>
       </c>
       <c r="H12" t="str">
-        <v>14.00</v>
+        <v>-3.88</v>
       </c>
       <c r="I12" t="str">
-        <v>6.16%</v>
+        <v>-0.75%</v>
       </c>
       <c r="J12" t="str">
-        <v>0.91</v>
+        <v>-8.15</v>
       </c>
       <c r="K12" t="str">
-        <v>6.56</v>
+        <v>-4.51</v>
       </c>
       <c r="L12" t="str">
-        <v>6.56</v>
+        <v>-4.51</v>
       </c>
       <c r="M12" t="str">
-        <v>1.75%</v>
+        <v>2.37%</v>
       </c>
       <c r="N12" t="str">
-        <v>178.72</v>
+        <v>200.89</v>
       </c>
       <c r="O12" t="str">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="P12" t="str">
-        <v>0.69%</v>
+        <v>-0.34%</v>
       </c>
       <c r="Q12" t="str">
-        <v>1.2153</v>
+        <v>1.7651</v>
       </c>
       <c r="R12" t="str">
-        <v>1.1370</v>
+        <v>1.7844</v>
+      </c>
+      <c r="S12" t="str">
+        <v>0.75%</v>
       </c>
       <c r="T12" t="str">
-        <v>8.35%</v>
+        <v>-1.19%</v>
       </c>
       <c r="U12" t="str">
-        <v>5.60%</v>
+        <v>0.33%</v>
       </c>
       <c r="V12" t="str">
-        <v>50.31%</v>
+        <v>-0.67%</v>
       </c>
       <c r="W12" t="str">
-        <v>64.67%</v>
+        <v>27.76%</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>017512</v>
+        <v>020113</v>
       </c>
       <c r="B13" t="str">
-        <v>广发北证50成份指数A</v>
+        <v>易方达中证沪港深500ETF联接发起式A</v>
       </c>
       <c r="C13" t="str">
-        <v>474.92</v>
+        <v>369.17</v>
       </c>
       <c r="D13" t="str">
-        <v>-2.40</v>
+        <v>0.03</v>
       </c>
       <c r="E13" t="str">
-        <v>-0.50%</v>
+        <v>0.01%</v>
       </c>
       <c r="F13" t="str">
-        <v>41.91</v>
+        <v>-2.36</v>
       </c>
       <c r="G13" t="str">
-        <v>9.68%</v>
+        <v>-0.64%</v>
       </c>
       <c r="H13" t="str">
-        <v>39.52</v>
+        <v>-2.33</v>
       </c>
       <c r="I13" t="str">
-        <v>9.68%</v>
+        <v>-0.64%</v>
       </c>
       <c r="J13" t="str">
-        <v>14.65</v>
+        <v>-1.70</v>
       </c>
       <c r="K13" t="str">
-        <v>44.03</v>
+        <v>-2.33</v>
       </c>
       <c r="L13" t="str">
-        <v>44.03</v>
+        <v>-2.33</v>
       </c>
       <c r="M13" t="str">
-        <v>3.85%</v>
+        <v>2.46%</v>
       </c>
       <c r="N13" t="str">
-        <v>250.99</v>
+        <v>239.47</v>
       </c>
       <c r="O13" t="str">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="P13" t="str">
-        <v>-0.50%</v>
+        <v>0.01%</v>
       </c>
       <c r="Q13" t="str">
-        <v>1.8826</v>
+        <v>1.5417</v>
       </c>
       <c r="R13" t="str">
-        <v>1.7252</v>
+        <v>1.5515</v>
+      </c>
+      <c r="S13" t="str">
+        <v>0.64%</v>
       </c>
       <c r="T13" t="str">
-        <v>10.40%</v>
+        <v>2.72%</v>
       </c>
       <c r="U13" t="str">
-        <v>6.47%</v>
+        <v>2.46%</v>
       </c>
       <c r="V13" t="str">
-        <v>12.65%</v>
+        <v>10.86%</v>
       </c>
       <c r="W13" t="str">
-        <v>57.11%</v>
+        <v>30.82%</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>006680</v>
+        <v>008706</v>
       </c>
       <c r="B14" t="str">
-        <v>广发道琼斯石油指数(QDII-LOF)C美元现汇</v>
+        <v>建信富时100指数(QDII)C人民币</v>
       </c>
       <c r="C14" t="str">
-        <v>38.25</v>
+        <v>151.44</v>
       </c>
       <c r="D14" t="str">
         <v>0</v>
@@ -1295,740 +1319,731 @@
         <v>0%</v>
       </c>
       <c r="F14" t="str">
-        <v>-1.26</v>
+        <v>-0.80</v>
       </c>
       <c r="G14" t="str">
-        <v>-3.19%</v>
+        <v>-0.52%</v>
       </c>
       <c r="H14" t="str">
-        <v>-1.26</v>
+        <v>-0.79</v>
       </c>
       <c r="I14" t="str">
-        <v>-3.19%</v>
+        <v>-0.52%</v>
       </c>
       <c r="J14" t="str">
-        <v>-0.37</v>
+        <v>-1.67</v>
       </c>
       <c r="K14" t="str">
-        <v>0.62</v>
+        <v>-0.79</v>
       </c>
       <c r="L14" t="str">
-        <v>0.62</v>
+        <v>-0.79</v>
       </c>
       <c r="M14" t="str">
-        <v>0.31%</v>
+        <v>1.01%</v>
       </c>
       <c r="N14" t="str">
-        <v>122.05</v>
+        <v>106.92</v>
       </c>
       <c r="O14" t="str">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="R14" t="str">
-        <v>0.3237</v>
+        <v>1.4239</v>
       </c>
       <c r="S14" t="str">
-        <v>3.29%</v>
+        <v>0.53%</v>
       </c>
       <c r="T14" t="str">
-        <v>-3.39%</v>
+        <v>1.37%</v>
       </c>
       <c r="U14" t="str">
-        <v>0.48%</v>
+        <v>5.06%</v>
       </c>
       <c r="V14" t="str">
-        <v>0.03%</v>
+        <v>9.32%</v>
       </c>
       <c r="W14" t="str">
-        <v>-2.12%</v>
+        <v>23.76%</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>017963</v>
+        <v>001614</v>
       </c>
       <c r="B15" t="str">
-        <v>广发医药创新混合发起式C</v>
+        <v>东方区域发展混合</v>
       </c>
       <c r="C15" t="str">
-        <v>129.25</v>
+        <v>423.76</v>
       </c>
       <c r="D15" t="str">
-        <v>6.33</v>
+        <v>-0.49</v>
       </c>
       <c r="E15" t="str">
-        <v>4.89%</v>
+        <v>-0.12%</v>
       </c>
       <c r="F15" t="str">
-        <v>9.25</v>
+        <v>-1.35</v>
       </c>
       <c r="G15" t="str">
-        <v>7.71%</v>
+        <v>-0.32%</v>
       </c>
       <c r="H15" t="str">
-        <v>15.57</v>
+        <v>-1.84</v>
       </c>
       <c r="I15" t="str">
-        <v>7.71%</v>
+        <v>-0.32%</v>
       </c>
       <c r="J15" t="str">
-        <v>6.84</v>
+        <v>-10.39</v>
       </c>
       <c r="K15" t="str">
-        <v>21.52</v>
+        <v>5.28</v>
       </c>
       <c r="L15" t="str">
-        <v>21.52</v>
+        <v>5.28</v>
       </c>
       <c r="M15" t="str">
-        <v>1.05%</v>
+        <v>2.83%</v>
       </c>
       <c r="N15" t="str">
-        <v>95.64</v>
+        <v>296.52</v>
       </c>
       <c r="O15" t="str">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="P15" t="str">
-        <v>4.89%</v>
+        <v>-0.12%</v>
       </c>
       <c r="Q15" t="str">
-        <v>1.4175</v>
+        <v>1.4275</v>
       </c>
       <c r="R15" t="str">
-        <v>1.2547</v>
+        <v>1.4337</v>
+      </c>
+      <c r="S15" t="str">
+        <v>0.32%</v>
       </c>
       <c r="T15" t="str">
-        <v>1.95%</v>
+        <v>1.93%</v>
       </c>
       <c r="U15" t="str">
-        <v>0.13%</v>
+        <v>-3.54%</v>
       </c>
       <c r="V15" t="str">
-        <v>4.91%</v>
+        <v>7.38%</v>
       </c>
       <c r="W15" t="str">
-        <v>61.80%</v>
+        <v>19.34%</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>006486</v>
+        <v>006680</v>
       </c>
       <c r="B16" t="str">
-        <v>广发中证1000ETF联接A</v>
+        <v>广发道琼斯石油指数(QDII-LOF)C美元现汇</v>
       </c>
       <c r="C16" t="str">
-        <v>352.03</v>
+        <v>39.47</v>
       </c>
       <c r="D16" t="str">
-        <v>-3.05</v>
+        <v>0</v>
       </c>
       <c r="E16" t="str">
-        <v>-0.87%</v>
+        <v>0%</v>
       </c>
       <c r="F16" t="str">
-        <v>38.21</v>
+        <v>-0.04</v>
       </c>
       <c r="G16" t="str">
-        <v>12.17%</v>
+        <v>-0.10%</v>
       </c>
       <c r="H16" t="str">
-        <v>35.16</v>
+        <v>-0.04</v>
       </c>
       <c r="I16" t="str">
-        <v>12.17%</v>
+        <v>-0.10%</v>
       </c>
       <c r="J16" t="str">
-        <v>-2.55</v>
+        <v>0.71</v>
       </c>
       <c r="K16" t="str">
-        <v>25.03</v>
+        <v>1.84</v>
       </c>
       <c r="L16" t="str">
-        <v>25.03</v>
+        <v>1.84</v>
       </c>
       <c r="M16" t="str">
-        <v>2.85%</v>
+        <v>0.26%</v>
       </c>
       <c r="N16" t="str">
-        <v>201.40</v>
+        <v>121.82</v>
       </c>
       <c r="O16" t="str">
-        <v>592</v>
-      </c>
-      <c r="P16" t="str">
-        <v>-0.87%</v>
-      </c>
-      <c r="Q16" t="str">
-        <v>1.7328</v>
+        <v>49</v>
       </c>
       <c r="R16" t="str">
-        <v>1.5582</v>
+        <v>0.3243</v>
+      </c>
+      <c r="S16" t="str">
+        <v>0.10%</v>
       </c>
       <c r="T16" t="str">
-        <v>12.63%</v>
+        <v>6.06%</v>
       </c>
       <c r="U16" t="str">
-        <v>10.60%</v>
+        <v>7.53%</v>
       </c>
       <c r="V16" t="str">
-        <v>27.73%</v>
+        <v>7.14%</v>
       </c>
       <c r="W16" t="str">
-        <v>48.82%</v>
+        <v>-3.28%</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>005693</v>
+        <v>006373</v>
       </c>
       <c r="B17" t="str">
-        <v>广发中证军工ETF联接C</v>
+        <v>国富全球科技互联混合(QDII)人民币A</v>
       </c>
       <c r="C17" t="str">
-        <v>161.54</v>
+        <v>116.05</v>
       </c>
       <c r="D17" t="str">
-        <v>-7.27</v>
+        <v>0</v>
       </c>
       <c r="E17" t="str">
-        <v>-4.50%</v>
+        <v>0%</v>
       </c>
       <c r="F17" t="str">
-        <v>36.00</v>
+        <v>22.19</v>
       </c>
       <c r="G17" t="str">
-        <v>28.68%</v>
+        <v>23.65%</v>
       </c>
       <c r="H17" t="str">
-        <v>28.73</v>
+        <v>22.19</v>
       </c>
       <c r="I17" t="str">
-        <v>28.68%</v>
+        <v>23.65%</v>
       </c>
       <c r="J17" t="str">
-        <v>-17.49</v>
+        <v>3.93</v>
       </c>
       <c r="K17" t="str">
-        <v>7.55</v>
+        <v>13.06</v>
       </c>
       <c r="L17" t="str">
-        <v>7.55</v>
+        <v>13.06</v>
       </c>
       <c r="M17" t="str">
-        <v>1.31%</v>
+        <v>0.77%</v>
       </c>
       <c r="N17" t="str">
-        <v>103.30</v>
+        <v>23.06</v>
       </c>
       <c r="O17" t="str">
-        <v>36</v>
-      </c>
-      <c r="P17" t="str">
-        <v>-4.50%</v>
-      </c>
-      <c r="Q17" t="str">
-        <v>1.4934</v>
+        <v>31</v>
       </c>
       <c r="R17" t="str">
-        <v>1.2153</v>
+        <v>4.0703</v>
       </c>
       <c r="T17" t="str">
-        <v>31.92%</v>
+        <v>14.23%</v>
       </c>
       <c r="U17" t="str">
-        <v>31.89%</v>
+        <v>19.46%</v>
       </c>
       <c r="V17" t="str">
-        <v>43.47%</v>
+        <v>30.08%</v>
       </c>
       <c r="W17" t="str">
-        <v>66.18%</v>
+        <v>38.49%</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>006373</v>
+        <v>012728</v>
       </c>
       <c r="B18" t="str">
-        <v>国富全球科技互联混合(QDII)人民币A</v>
+        <v>国泰中证动漫游戏ETF联接A</v>
       </c>
       <c r="C18" t="str">
-        <v>108.35</v>
+        <v>297.98</v>
       </c>
       <c r="D18" t="str">
-        <v>0</v>
+        <v>3.31</v>
       </c>
       <c r="E18" t="str">
-        <v>0%</v>
+        <v>1.11%</v>
       </c>
       <c r="F18" t="str">
-        <v>14.48</v>
+        <v>22.99</v>
       </c>
       <c r="G18" t="str">
-        <v>15.43%</v>
+        <v>8.36%</v>
       </c>
       <c r="H18" t="str">
-        <v>14.48</v>
+        <v>26.30</v>
       </c>
       <c r="I18" t="str">
-        <v>15.43%</v>
+        <v>8.36%</v>
       </c>
       <c r="J18" t="str">
-        <v>2.76</v>
+        <v>1.02</v>
       </c>
       <c r="K18" t="str">
-        <v>5.35</v>
+        <v>22.43</v>
       </c>
       <c r="L18" t="str">
-        <v>5.35</v>
+        <v>22.43</v>
       </c>
       <c r="M18" t="str">
-        <v>0.88%</v>
+        <v>1.99%</v>
       </c>
       <c r="N18" t="str">
-        <v>23.06</v>
+        <v>174.81</v>
       </c>
       <c r="O18" t="str">
-        <v>21</v>
+        <v>46</v>
+      </c>
+      <c r="P18" t="str">
+        <v>1.11%</v>
+      </c>
+      <c r="Q18" t="str">
+        <v>1.7235</v>
       </c>
       <c r="R18" t="str">
-        <v>4.0707</v>
+        <v>1.5731</v>
       </c>
       <c r="T18" t="str">
-        <v>5.37%</v>
+        <v>11.26%</v>
       </c>
       <c r="U18" t="str">
-        <v>8.74%</v>
+        <v>10.65%</v>
       </c>
       <c r="V18" t="str">
-        <v>22.42%</v>
+        <v>26.13%</v>
       </c>
       <c r="W18" t="str">
-        <v>32.82%</v>
+        <v>62.30%</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>006195</v>
+        <v>002170</v>
       </c>
       <c r="B19" t="str">
-        <v>国金量化多因子A</v>
+        <v>东吴移动互联混合C</v>
       </c>
       <c r="C19" t="str">
-        <v>88.98</v>
+        <v>125.77</v>
       </c>
       <c r="D19" t="str">
-        <v>-0.28</v>
+        <v>-0.47</v>
       </c>
       <c r="E19" t="str">
-        <v>-0.31%</v>
+        <v>-0.37%</v>
       </c>
       <c r="F19" t="str">
-        <v>7.94</v>
+        <v>13.21</v>
       </c>
       <c r="G19" t="str">
-        <v>9.80%</v>
+        <v>11.74%</v>
       </c>
       <c r="H19" t="str">
-        <v>7.66</v>
+        <v>12.74</v>
       </c>
       <c r="I19" t="str">
-        <v>9.80%</v>
+        <v>11.74%</v>
       </c>
       <c r="J19" t="str">
-        <v>-15.93</v>
+        <v>-0.35</v>
       </c>
       <c r="K19" t="str">
-        <v>0.96</v>
+        <v>6.41</v>
       </c>
       <c r="L19" t="str">
-        <v>0.96</v>
+        <v>6.41</v>
       </c>
       <c r="M19" t="str">
-        <v>0.72%</v>
+        <v>0.84%</v>
       </c>
       <c r="N19" t="str">
-        <v>27.53</v>
+        <v>19.99</v>
       </c>
       <c r="O19" t="str">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="P19" t="str">
-        <v>-0.31%</v>
+        <v>-0.37%</v>
       </c>
       <c r="Q19" t="str">
-        <v>3.2220</v>
+        <v>6.2681</v>
       </c>
       <c r="R19" t="str">
-        <v>2.9437</v>
+        <v>5.6308</v>
       </c>
       <c r="T19" t="str">
-        <v>10.92%</v>
+        <v>6.52%</v>
       </c>
       <c r="U19" t="str">
-        <v>10.59%</v>
+        <v>12.00%</v>
       </c>
       <c r="V19" t="str">
-        <v>28.10%</v>
+        <v>62.61%</v>
       </c>
       <c r="W19" t="str">
-        <v>69.77%</v>
+        <v>81.55%</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>257060</v>
+        <v>010341</v>
       </c>
       <c r="B20" t="str">
-        <v>国联安上证商品ETF联接A</v>
+        <v>招商产业精选股票A</v>
       </c>
       <c r="C20" t="str">
-        <v>343.68</v>
+        <v>310.54</v>
       </c>
       <c r="D20" t="str">
-        <v>1.16</v>
+        <v>-1.59</v>
       </c>
       <c r="E20" t="str">
-        <v>0.34%</v>
+        <v>-0.51%</v>
       </c>
       <c r="F20" t="str">
-        <v>35.90</v>
+        <v>21.30</v>
       </c>
       <c r="G20" t="str">
-        <v>11.66%</v>
+        <v>7.36%</v>
       </c>
       <c r="H20" t="str">
-        <v>37.05</v>
+        <v>19.70</v>
       </c>
       <c r="I20" t="str">
-        <v>11.66%</v>
+        <v>7.36%</v>
       </c>
       <c r="J20" t="str">
-        <v>-6.35</v>
+        <v>10.90</v>
       </c>
       <c r="K20" t="str">
-        <v>19.63</v>
+        <v>20.85</v>
       </c>
       <c r="L20" t="str">
-        <v>19.63</v>
+        <v>20.85</v>
       </c>
       <c r="M20" t="str">
-        <v>2.79%</v>
+        <v>2.07%</v>
       </c>
       <c r="N20" t="str">
-        <v>211.74</v>
+        <v>238.27</v>
       </c>
       <c r="O20" t="str">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="P20" t="str">
-        <v>0.34%</v>
+        <v>-0.51%</v>
       </c>
       <c r="Q20" t="str">
-        <v>1.6286</v>
+        <v>1.2966</v>
       </c>
       <c r="R20" t="str">
-        <v>1.4536</v>
+        <v>1.2139</v>
       </c>
       <c r="T20" t="str">
-        <v>12.80%</v>
+        <v>8.23%</v>
       </c>
       <c r="U20" t="str">
-        <v>12.74%</v>
+        <v>7.58%</v>
       </c>
       <c r="V20" t="str">
-        <v>41.48%</v>
+        <v>9.05%</v>
       </c>
       <c r="W20" t="str">
-        <v>54.71%</v>
+        <v>31.74%</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>006719</v>
+        <v>519196</v>
       </c>
       <c r="B21" t="str">
-        <v>国融融盛龙头严选混合C</v>
+        <v>万家新兴蓝筹A</v>
       </c>
       <c r="C21" t="str">
-        <v>266.70</v>
+        <v>367.54</v>
       </c>
       <c r="D21" t="str">
-        <v>-1.98</v>
+        <v>-5.68</v>
       </c>
       <c r="E21" t="str">
-        <v>-0.74%</v>
+        <v>-1.55%</v>
       </c>
       <c r="F21" t="str">
-        <v>-6.57</v>
+        <v>45.84</v>
       </c>
       <c r="G21" t="str">
-        <v>-2.41%</v>
+        <v>14.25%</v>
       </c>
       <c r="H21" t="str">
-        <v>-8.55</v>
+        <v>40.16</v>
       </c>
       <c r="I21" t="str">
-        <v>-2.41%</v>
+        <v>14.25%</v>
       </c>
       <c r="J21" t="str">
-        <v>1.65</v>
+        <v>6.74</v>
       </c>
       <c r="K21" t="str">
-        <v>5.36</v>
+        <v>8.85</v>
       </c>
       <c r="L21" t="str">
-        <v>5.36</v>
+        <v>8.85</v>
       </c>
       <c r="M21" t="str">
-        <v>2.16%</v>
+        <v>2.45%</v>
       </c>
       <c r="N21" t="str">
-        <v>140.53</v>
+        <v>77.65</v>
       </c>
       <c r="O21" t="str">
-        <v>573</v>
+        <v>596</v>
       </c>
       <c r="P21" t="str">
-        <v>-0.74%</v>
+        <v>-1.55%</v>
       </c>
       <c r="Q21" t="str">
-        <v>1.8837</v>
+        <v>4.6602</v>
       </c>
       <c r="R21" t="str">
-        <v>1.9446</v>
-      </c>
-      <c r="S21" t="str">
-        <v>2.46%</v>
+        <v>4.1429</v>
       </c>
       <c r="T21" t="str">
-        <v>-1.18%</v>
+        <v>4.08%</v>
       </c>
       <c r="U21" t="str">
-        <v>-7.99%</v>
+        <v>12.47%</v>
       </c>
       <c r="V21" t="str">
-        <v>3.51%</v>
+        <v>69.50%</v>
       </c>
       <c r="W21" t="str">
-        <v>4.37%</v>
+        <v>76.58%</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>012728</v>
+        <v>017387</v>
       </c>
       <c r="B22" t="str">
-        <v>国泰中证动漫游戏ETF联接A</v>
+        <v>兴证全球安悦稳健养老一年持有混合(FOF)Y</v>
       </c>
       <c r="C22" t="str">
-        <v>229.98</v>
+        <v>85.19</v>
       </c>
       <c r="D22" t="str">
-        <v>1.95</v>
+        <v>0.06</v>
       </c>
       <c r="E22" t="str">
-        <v>0.85%</v>
+        <v>0.07%</v>
       </c>
       <c r="F22" t="str">
-        <v>35.00</v>
+        <v>5.19</v>
       </c>
       <c r="G22" t="str">
-        <v>17.95%</v>
+        <v>6.49%</v>
       </c>
       <c r="H22" t="str">
-        <v>36.95</v>
+        <v>5.25</v>
       </c>
       <c r="I22" t="str">
-        <v>17.95%</v>
+        <v>6.49%</v>
       </c>
       <c r="J22" t="str">
-        <v>17.31</v>
+        <v>0.08</v>
       </c>
       <c r="K22" t="str">
-        <v>33.08</v>
+        <v>1.00</v>
       </c>
       <c r="L22" t="str">
-        <v>33.08</v>
+        <v>1.00</v>
       </c>
       <c r="M22" t="str">
-        <v>1.86%</v>
+        <v>0.57%</v>
       </c>
       <c r="N22" t="str">
-        <v>128.53</v>
+        <v>71.51</v>
       </c>
       <c r="O22" t="str">
-        <v>36</v>
+        <v>596</v>
       </c>
       <c r="P22" t="str">
-        <v>0.85%</v>
+        <v>0.07%</v>
       </c>
       <c r="Q22" t="str">
-        <v>1.8045</v>
+        <v>1.1921</v>
       </c>
       <c r="R22" t="str">
-        <v>1.5170</v>
+        <v>1.1187</v>
       </c>
       <c r="T22" t="str">
-        <v>18.95%</v>
+        <v>1.36%</v>
       </c>
       <c r="U22" t="str">
-        <v>11.62%</v>
+        <v>1.40%</v>
       </c>
       <c r="V22" t="str">
-        <v>27.31%</v>
+        <v>4.96%</v>
       </c>
       <c r="W22" t="str">
-        <v>79.56%</v>
+        <v>10.34%</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>007817</v>
+        <v>100055</v>
       </c>
       <c r="B23" t="str">
-        <v>国泰中证全指通信设备ETF联接A</v>
+        <v>富国全球科技互联网股票(QDII)A</v>
       </c>
       <c r="C23" t="str">
-        <v>105.98</v>
+        <v>456.76</v>
       </c>
       <c r="D23" t="str">
-        <v>-1.89</v>
+        <v>0</v>
       </c>
       <c r="E23" t="str">
-        <v>-1.78%</v>
+        <v>0%</v>
       </c>
       <c r="F23" t="str">
-        <v>18.92</v>
+        <v>26.93</v>
       </c>
       <c r="G23" t="str">
-        <v>21.74%</v>
+        <v>6.27%</v>
       </c>
       <c r="H23" t="str">
-        <v>17.03</v>
+        <v>26.93</v>
       </c>
       <c r="I23" t="str">
-        <v>21.74%</v>
+        <v>6.27%</v>
       </c>
       <c r="J23" t="str">
-        <v>-2.15</v>
+        <v>-11.79</v>
       </c>
       <c r="K23" t="str">
-        <v>0.01</v>
+        <v>26.29</v>
       </c>
       <c r="L23" t="str">
-        <v>0.01</v>
+        <v>26.29</v>
       </c>
       <c r="M23" t="str">
-        <v>0.86%</v>
+        <v>3.05%</v>
       </c>
       <c r="N23" t="str">
-        <v>34.84</v>
+        <v>115.21</v>
       </c>
       <c r="O23" t="str">
-        <v>53</v>
-      </c>
-      <c r="P23" t="str">
-        <v>-1.78%</v>
-      </c>
-      <c r="Q23" t="str">
-        <v>2.9878</v>
+        <v>49</v>
       </c>
       <c r="R23" t="str">
-        <v>2.4989</v>
+        <v>3.7308</v>
       </c>
       <c r="T23" t="str">
-        <v>7.68%</v>
+        <v>8.83%</v>
       </c>
       <c r="U23" t="str">
-        <v>21.30%</v>
+        <v>9.91%</v>
       </c>
       <c r="V23" t="str">
-        <v>106.49%</v>
+        <v>25.75%</v>
       </c>
       <c r="W23" t="str">
-        <v>142.35%</v>
+        <v>49.92%</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>022327</v>
+        <v>007817</v>
       </c>
       <c r="B24" t="str">
-        <v>宏利高端装备股票A</v>
+        <v>国泰中证全指通信设备ETF联接A</v>
       </c>
       <c r="C24" t="str">
-        <v>205.23</v>
+        <v>104.41</v>
       </c>
       <c r="D24" t="str">
-        <v>0.19</v>
+        <v>-0.87</v>
       </c>
       <c r="E24" t="str">
-        <v>0.09%</v>
+        <v>-0.83%</v>
       </c>
       <c r="F24" t="str">
-        <v>15.23</v>
+        <v>17.35</v>
       </c>
       <c r="G24" t="str">
-        <v>8.01%</v>
+        <v>19.93%</v>
       </c>
       <c r="H24" t="str">
-        <v>15.42</v>
+        <v>16.48</v>
       </c>
       <c r="I24" t="str">
-        <v>8.01%</v>
+        <v>19.93%</v>
       </c>
       <c r="J24" t="str">
-        <v>15.42</v>
+        <v>-1.85</v>
       </c>
       <c r="K24" t="str">
-        <v>15.42</v>
+        <v>-0.54</v>
       </c>
       <c r="L24" t="str">
-        <v>15.42</v>
+        <v>-0.54</v>
       </c>
       <c r="M24" t="str">
-        <v>1.66%</v>
+        <v>0.70%</v>
       </c>
       <c r="N24" t="str">
-        <v>134.18</v>
+        <v>34.84</v>
       </c>
       <c r="O24" t="str">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="P24" t="str">
-        <v>0.09%</v>
+        <v>-0.83%</v>
       </c>
       <c r="Q24" t="str">
-        <v>1.5309</v>
+        <v>2.9719</v>
       </c>
       <c r="R24" t="str">
-        <v>1.4160</v>
+        <v>2.4989</v>
       </c>
       <c r="T24" t="str">
-        <v>14.26%</v>
+        <v>2.11%</v>
       </c>
       <c r="U24" t="str">
-        <v>17.31%</v>
+        <v>18.92%</v>
       </c>
       <c r="V24" t="str">
-        <v>43.00%</v>
+        <v>85.10%</v>
       </c>
       <c r="W24" t="str">
-        <v>0%</v>
+        <v>113.44%</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>006105</v>
+        <v>096001</v>
       </c>
       <c r="B25" t="str">
-        <v>宏利印度股票(QDII)A</v>
+        <v>大成标普500等权重指数(QDII)A人民币</v>
       </c>
       <c r="C25" t="str">
-        <v>228.21</v>
+        <v>110.65</v>
       </c>
       <c r="D25" t="str">
         <v>0</v>
@@ -2037,1252 +2052,1261 @@
         <v>0%</v>
       </c>
       <c r="F25" t="str">
-        <v>-7.21</v>
+        <v>4.09</v>
       </c>
       <c r="G25" t="str">
-        <v>-3.06%</v>
+        <v>3.84%</v>
       </c>
       <c r="H25" t="str">
-        <v>-7.21</v>
+        <v>4.09</v>
       </c>
       <c r="I25" t="str">
-        <v>-3.06%</v>
+        <v>3.84%</v>
       </c>
       <c r="J25" t="str">
-        <v>-2.20</v>
+        <v>-0.39</v>
       </c>
       <c r="K25" t="str">
-        <v>-2.19</v>
+        <v>2.45</v>
       </c>
       <c r="L25" t="str">
-        <v>-2.19</v>
+        <v>2.45</v>
       </c>
       <c r="M25" t="str">
-        <v>1.85%</v>
+        <v>0.74%</v>
       </c>
       <c r="N25" t="str">
-        <v>159.69</v>
+        <v>41.35</v>
       </c>
       <c r="O25" t="str">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="R25" t="str">
-        <v>1.4742</v>
-      </c>
-      <c r="S25" t="str">
-        <v>3.16%</v>
+        <v>2.5770</v>
       </c>
       <c r="T25" t="str">
-        <v>-1.64%</v>
+        <v>2.65%</v>
       </c>
       <c r="U25" t="str">
-        <v>-2.59%</v>
+        <v>2.92%</v>
       </c>
       <c r="V25" t="str">
-        <v>-8.13%</v>
+        <v>5.88%</v>
       </c>
       <c r="W25" t="str">
-        <v>-4.75%</v>
+        <v>6.73%</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>021540</v>
+        <v>005693</v>
       </c>
       <c r="B26" t="str">
-        <v>华安法国CAC40ETF发起式联接(QDII)C</v>
+        <v>广发中证军工ETF联接C</v>
       </c>
       <c r="C26" t="str">
-        <v>20.11</v>
+        <v>230.29</v>
       </c>
       <c r="D26" t="str">
-        <v>0</v>
+        <v>6.56</v>
       </c>
       <c r="E26" t="str">
-        <v>0%</v>
+        <v>2.85%</v>
       </c>
       <c r="F26" t="str">
-        <v>0.11</v>
+        <v>24.75</v>
       </c>
       <c r="G26" t="str">
-        <v>0.57%</v>
+        <v>12.04%</v>
       </c>
       <c r="H26" t="str">
-        <v>0.11</v>
+        <v>31.31</v>
       </c>
       <c r="I26" t="str">
-        <v>0.57%</v>
+        <v>12.04%</v>
       </c>
       <c r="J26" t="str">
-        <v>0.22</v>
+        <v>8.98</v>
       </c>
       <c r="K26" t="str">
-        <v>0.11</v>
+        <v>10.13</v>
       </c>
       <c r="L26" t="str">
-        <v>0.11</v>
+        <v>10.13</v>
       </c>
       <c r="M26" t="str">
-        <v>0.16%</v>
+        <v>1.54%</v>
       </c>
       <c r="N26" t="str">
-        <v>17.81</v>
+        <v>158.59</v>
       </c>
       <c r="O26" t="str">
-        <v>4</v>
+        <v>46</v>
+      </c>
+      <c r="P26" t="str">
+        <v>2.85%</v>
+      </c>
+      <c r="Q26" t="str">
+        <v>1.4935</v>
       </c>
       <c r="R26" t="str">
-        <v>1.1230</v>
+        <v>1.2960</v>
       </c>
       <c r="T26" t="str">
-        <v>2.52%</v>
+        <v>24.88%</v>
       </c>
       <c r="U26" t="str">
-        <v>1.72%</v>
+        <v>31.59%</v>
       </c>
       <c r="V26" t="str">
-        <v>1.52%</v>
+        <v>34.12%</v>
       </c>
       <c r="W26" t="str">
-        <v>22.51%</v>
+        <v>56.21%</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>015016</v>
+        <v>020114</v>
       </c>
       <c r="B27" t="str">
-        <v>华安国际龙头(DAX)ETF联接C</v>
+        <v>易方达中证沪港深500ETF联接发起式C</v>
       </c>
       <c r="C27" t="str">
-        <v>30.05</v>
+        <v>80.66</v>
       </c>
       <c r="D27" t="str">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E27" t="str">
-        <v>0%</v>
+        <v>0.01%</v>
       </c>
       <c r="F27" t="str">
-        <v>0.05</v>
+        <v>1.95</v>
       </c>
       <c r="G27" t="str">
-        <v>0.18%</v>
+        <v>2.48%</v>
       </c>
       <c r="H27" t="str">
-        <v>0.05</v>
+        <v>1.96</v>
       </c>
       <c r="I27" t="str">
-        <v>0.18%</v>
+        <v>2.48%</v>
       </c>
       <c r="J27" t="str">
-        <v>0.08</v>
+        <v>-0.37</v>
       </c>
       <c r="K27" t="str">
-        <v>0.05</v>
+        <v>2.43</v>
       </c>
       <c r="L27" t="str">
-        <v>0.05</v>
+        <v>2.43</v>
       </c>
       <c r="M27" t="str">
-        <v>0.24%</v>
+        <v>0.54%</v>
       </c>
       <c r="N27" t="str">
-        <v>14.59</v>
+        <v>52.64</v>
       </c>
       <c r="O27" t="str">
-        <v>4</v>
+        <v>46</v>
+      </c>
+      <c r="P27" t="str">
+        <v>0.01%</v>
+      </c>
+      <c r="Q27" t="str">
+        <v>1.5324</v>
       </c>
       <c r="R27" t="str">
-        <v>2.0562</v>
+        <v>1.4953</v>
       </c>
       <c r="T27" t="str">
-        <v>3.20%</v>
+        <v>2.70%</v>
       </c>
       <c r="U27" t="str">
-        <v>0.44%</v>
+        <v>2.38%</v>
       </c>
       <c r="V27" t="str">
-        <v>-1.27%</v>
+        <v>10.70%</v>
       </c>
       <c r="W27" t="str">
-        <v>30.13%</v>
+        <v>30.45%</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>040047</v>
+        <v>013942</v>
       </c>
       <c r="B28" t="str">
-        <v>华安纳斯达克100ETF联接(QDII)A(美元现钞)</v>
+        <v>华宝中证稀有金属指数增强发起A</v>
       </c>
       <c r="C28" t="str">
-        <v>288.96</v>
+        <v>12.83</v>
       </c>
       <c r="D28" t="str">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="E28" t="str">
-        <v>0%</v>
+        <v>3.00%</v>
       </c>
       <c r="F28" t="str">
-        <v>3.10</v>
+        <v>2.47</v>
       </c>
       <c r="G28" t="str">
-        <v>1.09%</v>
+        <v>23.82%</v>
       </c>
       <c r="H28" t="str">
-        <v>3.10</v>
+        <v>2.85</v>
       </c>
       <c r="I28" t="str">
-        <v>1.09%</v>
+        <v>23.82%</v>
       </c>
       <c r="J28" t="str">
-        <v>2.88</v>
+        <v>0.61</v>
       </c>
       <c r="K28" t="str">
-        <v>2.76</v>
+        <v>-3.69</v>
       </c>
       <c r="L28" t="str">
-        <v>2.76</v>
+        <v>-3.69</v>
       </c>
       <c r="M28" t="str">
-        <v>2.34%</v>
+        <v>0.09%</v>
       </c>
       <c r="N28" t="str">
-        <v>271.71</v>
+        <v>10.77</v>
       </c>
       <c r="O28" t="str">
-        <v>34</v>
+        <v>46</v>
+      </c>
+      <c r="P28" t="str">
+        <v>3.00%</v>
+      </c>
+      <c r="Q28" t="str">
+        <v>1.2268</v>
       </c>
       <c r="R28" t="str">
-        <v>1.0521</v>
+        <v>0.9619</v>
       </c>
       <c r="T28" t="str">
-        <v>0.34%</v>
+        <v>18.16%</v>
       </c>
       <c r="U28" t="str">
-        <v>2.23%</v>
+        <v>32.91%</v>
       </c>
       <c r="V28" t="str">
-        <v>11.96%</v>
+        <v>76.17%</v>
       </c>
       <c r="W28" t="str">
-        <v>18.26%</v>
+        <v>116.99%</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>002179</v>
+        <v>008086</v>
       </c>
       <c r="B29" t="str">
-        <v>华安事件驱动量化混合A</v>
+        <v>华夏中证5G通信主题ETF联接A</v>
       </c>
       <c r="C29" t="str">
-        <v>302.81</v>
+        <v>83.01</v>
       </c>
       <c r="D29" t="str">
-        <v>-0.19</v>
+        <v>-1.09</v>
       </c>
       <c r="E29" t="str">
-        <v>-0.06%</v>
+        <v>-1.31%</v>
       </c>
       <c r="F29" t="str">
-        <v>21.53</v>
+        <v>10.15</v>
       </c>
       <c r="G29" t="str">
-        <v>7.66%</v>
+        <v>13.93%</v>
       </c>
       <c r="H29" t="str">
-        <v>21.35</v>
+        <v>9.06</v>
       </c>
       <c r="I29" t="str">
-        <v>7.66%</v>
+        <v>13.93%</v>
       </c>
       <c r="J29" t="str">
-        <v>-4.16</v>
+        <v>-1.37</v>
       </c>
       <c r="K29" t="str">
-        <v>13.02</v>
+        <v>0.69</v>
       </c>
       <c r="L29" t="str">
-        <v>13.02</v>
+        <v>0.69</v>
       </c>
       <c r="M29" t="str">
-        <v>2.45%</v>
+        <v>0.55%</v>
       </c>
       <c r="N29" t="str">
-        <v>115.27</v>
+        <v>36.08</v>
       </c>
       <c r="O29" t="str">
-        <v>592</v>
+        <v>46</v>
       </c>
       <c r="P29" t="str">
-        <v>-0.06%</v>
+        <v>-1.31%</v>
       </c>
       <c r="Q29" t="str">
-        <v>2.6254</v>
+        <v>2.2706</v>
       </c>
       <c r="R29" t="str">
-        <v>2.4402</v>
+        <v>2.0194</v>
       </c>
       <c r="T29" t="str">
-        <v>9.50%</v>
+        <v>3.92%</v>
       </c>
       <c r="U29" t="str">
-        <v>5.54%</v>
+        <v>14.54%</v>
       </c>
       <c r="V29" t="str">
-        <v>27.77%</v>
+        <v>73.33%</v>
       </c>
       <c r="W29" t="str">
-        <v>49.60%</v>
+        <v>92.06%</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>007844</v>
+        <v>013466</v>
       </c>
       <c r="B30" t="str">
-        <v>华宝油气C</v>
+        <v>博时智选量化多因子股票C</v>
       </c>
       <c r="C30" t="str">
-        <v>322.38</v>
+        <v>159.00</v>
       </c>
       <c r="D30" t="str">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="E30" t="str">
-        <v>0%</v>
+        <v>0.77%</v>
       </c>
       <c r="F30" t="str">
-        <v>-7.25</v>
+        <v>15.70</v>
       </c>
       <c r="G30" t="str">
-        <v>-2.20%</v>
+        <v>10.96%</v>
       </c>
       <c r="H30" t="str">
-        <v>-7.25</v>
+        <v>16.93</v>
       </c>
       <c r="I30" t="str">
-        <v>-2.20%</v>
+        <v>10.96%</v>
       </c>
       <c r="J30" t="str">
-        <v>-2.81</v>
+        <v>1.36</v>
       </c>
       <c r="K30" t="str">
-        <v>-0.79</v>
+        <v>17.60</v>
       </c>
       <c r="L30" t="str">
-        <v>-0.79</v>
+        <v>17.60</v>
       </c>
       <c r="M30" t="str">
-        <v>2.61%</v>
+        <v>1.06%</v>
       </c>
       <c r="N30" t="str">
-        <v>467.96</v>
+        <v>120.39</v>
       </c>
       <c r="O30" t="str">
-        <v>586</v>
+        <v>46</v>
+      </c>
+      <c r="P30" t="str">
+        <v>0.77%</v>
+      </c>
+      <c r="Q30" t="str">
+        <v>1.3309</v>
       </c>
       <c r="R30" t="str">
-        <v>0.7044</v>
-      </c>
-      <c r="S30" t="str">
-        <v>2.25%</v>
+        <v>1.1903</v>
       </c>
       <c r="T30" t="str">
-        <v>-5.41%</v>
+        <v>13.12%</v>
       </c>
       <c r="U30" t="str">
-        <v>-3.97%</v>
+        <v>11.46%</v>
       </c>
       <c r="V30" t="str">
-        <v>-4.33%</v>
+        <v>38.03%</v>
       </c>
       <c r="W30" t="str">
-        <v>-9.19%</v>
+        <v>54.52%</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>013942</v>
+        <v>012061</v>
       </c>
       <c r="B31" t="str">
-        <v>华宝中证稀有金属指数增强发起A</v>
+        <v>富国全球消费精选混合(QDII)美元现汇</v>
       </c>
       <c r="C31" t="str">
-        <v>12.56</v>
+        <v>330.93</v>
       </c>
       <c r="D31" t="str">
-        <v>0.08</v>
+        <v>3.74</v>
       </c>
       <c r="E31" t="str">
-        <v>0.64%</v>
+        <v>1.14%</v>
       </c>
       <c r="F31" t="str">
-        <v>2.20</v>
+        <v>12.69</v>
       </c>
       <c r="G31" t="str">
-        <v>21.28%</v>
+        <v>3.99%</v>
       </c>
       <c r="H31" t="str">
-        <v>2.28</v>
+        <v>12.69</v>
       </c>
       <c r="I31" t="str">
-        <v>21.28%</v>
+        <v>3.99%</v>
       </c>
       <c r="J31" t="str">
-        <v>-10.75</v>
+        <v>0.73</v>
       </c>
       <c r="K31" t="str">
-        <v>-4.26</v>
+        <v>17.37</v>
       </c>
       <c r="L31" t="str">
-        <v>-4.26</v>
+        <v>17.37</v>
       </c>
       <c r="M31" t="str">
-        <v>0.10%</v>
+        <v>2.21%</v>
       </c>
       <c r="N31" t="str">
-        <v>10.77</v>
+        <v>1336.01</v>
       </c>
       <c r="O31" t="str">
-        <v>36</v>
-      </c>
-      <c r="P31" t="str">
-        <v>0.64%</v>
-      </c>
-      <c r="Q31" t="str">
-        <v>1.1741</v>
+        <v>64</v>
       </c>
       <c r="R31" t="str">
-        <v>0.9619</v>
+        <v>0.2382</v>
       </c>
       <c r="T31" t="str">
-        <v>19.14%</v>
+        <v>6.63%</v>
       </c>
       <c r="U31" t="str">
-        <v>23.36%</v>
+        <v>3.12%</v>
       </c>
       <c r="V31" t="str">
-        <v>79.64%</v>
+        <v>10.53%</v>
       </c>
       <c r="W31" t="str">
-        <v>112.53%</v>
+        <v>51.96%</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>004206</v>
+        <v>018048</v>
       </c>
       <c r="B32" t="str">
-        <v>华商元亨混合A</v>
+        <v>申万菱信数字产业股票型发起式A</v>
       </c>
       <c r="C32" t="str">
-        <v>250.53</v>
+        <v>171.13</v>
       </c>
       <c r="D32" t="str">
-        <v>-2.12</v>
+        <v>3.38</v>
       </c>
       <c r="E32" t="str">
-        <v>-0.85%</v>
+        <v>1.98%</v>
       </c>
       <c r="F32" t="str">
-        <v>17.81</v>
+        <v>35.33</v>
       </c>
       <c r="G32" t="str">
-        <v>7.65%</v>
+        <v>26.02%</v>
       </c>
       <c r="H32" t="str">
-        <v>15.69</v>
+        <v>38.71</v>
       </c>
       <c r="I32" t="str">
-        <v>7.65%</v>
+        <v>26.02%</v>
       </c>
       <c r="J32" t="str">
-        <v>0.90</v>
+        <v>-0.98</v>
       </c>
       <c r="K32" t="str">
-        <v>7.43</v>
+        <v>33.15</v>
       </c>
       <c r="L32" t="str">
-        <v>7.43</v>
+        <v>33.15</v>
       </c>
       <c r="M32" t="str">
-        <v>2.03%</v>
+        <v>1.14%</v>
       </c>
       <c r="N32" t="str">
-        <v>79.83</v>
+        <v>112.86</v>
       </c>
       <c r="O32" t="str">
-        <v>573</v>
+        <v>598</v>
       </c>
       <c r="P32" t="str">
-        <v>-0.85%</v>
+        <v>1.98%</v>
       </c>
       <c r="Q32" t="str">
-        <v>3.1118</v>
+        <v>1.5463</v>
       </c>
       <c r="R32" t="str">
-        <v>2.9152</v>
+        <v>1.2033</v>
       </c>
       <c r="T32" t="str">
-        <v>5.98%</v>
+        <v>38.34%</v>
       </c>
       <c r="U32" t="str">
-        <v>8.21%</v>
+        <v>33.13%</v>
       </c>
       <c r="V32" t="str">
-        <v>57.13%</v>
+        <v>45.69%</v>
       </c>
       <c r="W32" t="str">
-        <v>98.60%</v>
+        <v>55.93%</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>011937</v>
+        <v>002179</v>
       </c>
       <c r="B33" t="str">
-        <v>华夏阿尔法精选混合C</v>
+        <v>华安事件驱动量化混合A</v>
       </c>
       <c r="C33" t="str">
-        <v>199.64</v>
+        <v>348.37</v>
       </c>
       <c r="D33" t="str">
-        <v>-1.75</v>
+        <v>1.91</v>
       </c>
       <c r="E33" t="str">
-        <v>-0.88%</v>
+        <v>0.55%</v>
       </c>
       <c r="F33" t="str">
-        <v>17.11</v>
+        <v>21.82</v>
       </c>
       <c r="G33" t="str">
-        <v>9.37%</v>
+        <v>6.68%</v>
       </c>
       <c r="H33" t="str">
-        <v>15.36</v>
+        <v>23.73</v>
       </c>
       <c r="I33" t="str">
-        <v>9.37%</v>
+        <v>6.68%</v>
       </c>
       <c r="J33" t="str">
-        <v>5.80</v>
+        <v>4.28</v>
       </c>
       <c r="K33" t="str">
-        <v>13.02</v>
+        <v>15.40</v>
       </c>
       <c r="L33" t="str">
-        <v>13.02</v>
+        <v>15.40</v>
       </c>
       <c r="M33" t="str">
-        <v>1.62%</v>
+        <v>2.32%</v>
       </c>
       <c r="N33" t="str">
-        <v>195.80</v>
+        <v>132.16</v>
       </c>
       <c r="O33" t="str">
-        <v>36</v>
+        <v>602</v>
       </c>
       <c r="P33" t="str">
-        <v>-0.88%</v>
+        <v>0.55%</v>
       </c>
       <c r="Q33" t="str">
-        <v>1.0107</v>
+        <v>2.6505</v>
       </c>
       <c r="R33" t="str">
-        <v>0.9322</v>
+        <v>2.4709</v>
       </c>
       <c r="T33" t="str">
-        <v>7.35%</v>
+        <v>8.80%</v>
       </c>
       <c r="U33" t="str">
-        <v>3.15%</v>
+        <v>8.66%</v>
       </c>
       <c r="V33" t="str">
-        <v>40.02%</v>
+        <v>25.67%</v>
       </c>
       <c r="W33" t="str">
-        <v>35.17%</v>
+        <v>44.21%</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>008086</v>
+        <v>002611</v>
       </c>
       <c r="B34" t="str">
-        <v>华夏中证5G通信主题ETF联接A</v>
+        <v>博时黄金ETF联接C</v>
       </c>
       <c r="C34" t="str">
-        <v>82.64</v>
+        <v>215.36</v>
       </c>
       <c r="D34" t="str">
-        <v>-1.31</v>
+        <v>5.16</v>
       </c>
       <c r="E34" t="str">
-        <v>-1.58%</v>
+        <v>2.39%</v>
       </c>
       <c r="F34" t="str">
-        <v>9.77</v>
+        <v>15.25</v>
       </c>
       <c r="G34" t="str">
-        <v>13.40%</v>
+        <v>7.62%</v>
       </c>
       <c r="H34" t="str">
-        <v>8.46</v>
+        <v>20.41</v>
       </c>
       <c r="I34" t="str">
-        <v>13.40%</v>
+        <v>7.62%</v>
       </c>
       <c r="J34" t="str">
-        <v>-2.15</v>
+        <v>12.66</v>
       </c>
       <c r="K34" t="str">
-        <v>0.09</v>
+        <v>18.47</v>
       </c>
       <c r="L34" t="str">
-        <v>0.09</v>
+        <v>18.47</v>
       </c>
       <c r="M34" t="str">
-        <v>0.67%</v>
+        <v>1.44%</v>
       </c>
       <c r="N34" t="str">
-        <v>36.08</v>
+        <v>63.25</v>
       </c>
       <c r="O34" t="str">
-        <v>36</v>
+        <v>598</v>
       </c>
       <c r="P34" t="str">
-        <v>-1.58%</v>
+        <v>2.39%</v>
       </c>
       <c r="Q34" t="str">
-        <v>2.2542</v>
+        <v>3.4864</v>
       </c>
       <c r="R34" t="str">
-        <v>2.0197</v>
+        <v>3.1638</v>
       </c>
       <c r="T34" t="str">
-        <v>7.23%</v>
+        <v>9.85%</v>
       </c>
       <c r="U34" t="str">
-        <v>13.37%</v>
+        <v>17.03%</v>
       </c>
       <c r="V34" t="str">
-        <v>88.90%</v>
+        <v>38.90%</v>
       </c>
       <c r="W34" t="str">
-        <v>111.94%</v>
+        <v>67.24%</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>020422</v>
+        <v>257060</v>
       </c>
       <c r="B35" t="str">
-        <v>华夏中证港股通内地金融ETF发起式联接A</v>
+        <v>国联安上证商品ETF联接A</v>
       </c>
       <c r="C35" t="str">
-        <v>335.03</v>
+        <v>392.39</v>
       </c>
       <c r="D35" t="str">
-        <v>3.58</v>
+        <v>4.75</v>
       </c>
       <c r="E35" t="str">
-        <v>1.07%</v>
+        <v>1.21%</v>
       </c>
       <c r="F35" t="str">
-        <v>4.42</v>
+        <v>52.50</v>
       </c>
       <c r="G35" t="str">
-        <v>1.34%</v>
+        <v>15.45%</v>
       </c>
       <c r="H35" t="str">
-        <v>8.01</v>
+        <v>57.25</v>
       </c>
       <c r="I35" t="str">
-        <v>1.34%</v>
+        <v>15.45%</v>
       </c>
       <c r="J35" t="str">
-        <v>3.90</v>
+        <v>17.69</v>
       </c>
       <c r="K35" t="str">
-        <v>7.37</v>
+        <v>39.83</v>
       </c>
       <c r="L35" t="str">
-        <v>7.37</v>
+        <v>39.83</v>
       </c>
       <c r="M35" t="str">
-        <v>2.72%</v>
+        <v>2.62%</v>
       </c>
       <c r="N35" t="str">
-        <v>185.45</v>
+        <v>228.60</v>
       </c>
       <c r="O35" t="str">
-        <v>586</v>
+        <v>63</v>
       </c>
       <c r="P35" t="str">
-        <v>1.07%</v>
+        <v>1.21%</v>
       </c>
       <c r="Q35" t="str">
-        <v>1.8259</v>
+        <v>1.7373</v>
       </c>
       <c r="R35" t="str">
-        <v>1.7827</v>
+        <v>1.4868</v>
       </c>
       <c r="T35" t="str">
-        <v>1.43%</v>
+        <v>17.46%</v>
       </c>
       <c r="U35" t="str">
-        <v>7.08%</v>
+        <v>21.93%</v>
       </c>
       <c r="V35" t="str">
-        <v>3.54%</v>
+        <v>42.28%</v>
       </c>
       <c r="W35" t="str">
-        <v>36.55%</v>
+        <v>63.87%</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>005551</v>
+        <v>011937</v>
       </c>
       <c r="B36" t="str">
-        <v>汇安成长优选混合C</v>
+        <v>华夏阿尔法精选混合C</v>
       </c>
       <c r="C36" t="str">
-        <v>87.89</v>
+        <v>266.25</v>
       </c>
       <c r="D36" t="str">
-        <v>-1.39</v>
+        <v>-0.60</v>
       </c>
       <c r="E36" t="str">
-        <v>-1.58%</v>
+        <v>-0.22%</v>
       </c>
       <c r="F36" t="str">
-        <v>7.89</v>
+        <v>16.15</v>
       </c>
       <c r="G36" t="str">
-        <v>9.86%</v>
+        <v>6.46%</v>
       </c>
       <c r="H36" t="str">
-        <v>6.50</v>
+        <v>15.55</v>
       </c>
       <c r="I36" t="str">
-        <v>9.86%</v>
+        <v>6.46%</v>
       </c>
       <c r="J36" t="str">
-        <v>-1.25</v>
+        <v>-0.48</v>
       </c>
       <c r="K36" t="str">
-        <v>4.63</v>
+        <v>13.21</v>
       </c>
       <c r="L36" t="str">
-        <v>4.63</v>
+        <v>13.21</v>
       </c>
       <c r="M36" t="str">
-        <v>0.71%</v>
+        <v>1.78%</v>
       </c>
       <c r="N36" t="str">
-        <v>35.28</v>
+        <v>262.11</v>
       </c>
       <c r="O36" t="str">
-        <v>592</v>
+        <v>46</v>
       </c>
       <c r="P36" t="str">
-        <v>-1.58%</v>
+        <v>-0.22%</v>
       </c>
       <c r="Q36" t="str">
-        <v>2.4517</v>
+        <v>1.0135</v>
       </c>
       <c r="R36" t="str">
-        <v>2.2676</v>
+        <v>0.9542</v>
       </c>
       <c r="T36" t="str">
-        <v>9.68%</v>
+        <v>8.50%</v>
       </c>
       <c r="U36" t="str">
-        <v>24.81%</v>
+        <v>4.83%</v>
       </c>
       <c r="V36" t="str">
-        <v>90.03%</v>
+        <v>33.12%</v>
       </c>
       <c r="W36" t="str">
-        <v>167.11%</v>
+        <v>32.35%</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>012863</v>
+        <v>007721</v>
       </c>
       <c r="B37" t="str">
-        <v>汇添富中证电池主题ETF发起式联接C</v>
+        <v>天弘标普500发起(QDII-FOF)A</v>
       </c>
       <c r="C37" t="str">
-        <v>173.37</v>
+        <v>660.80</v>
       </c>
       <c r="D37" t="str">
-        <v>-0.67</v>
+        <v>0</v>
       </c>
       <c r="E37" t="str">
-        <v>-0.39%</v>
+        <v>0%</v>
       </c>
       <c r="F37" t="str">
-        <v>4.60</v>
+        <v>15.17</v>
       </c>
       <c r="G37" t="str">
-        <v>2.72%</v>
+        <v>2.35%</v>
       </c>
       <c r="H37" t="str">
-        <v>3.92</v>
+        <v>15.17</v>
       </c>
       <c r="I37" t="str">
-        <v>2.72%</v>
+        <v>2.35%</v>
       </c>
       <c r="J37" t="str">
-        <v>-3.18</v>
+        <v>-7.65</v>
       </c>
       <c r="K37" t="str">
-        <v>3.27</v>
+        <v>-8.87</v>
       </c>
       <c r="L37" t="str">
-        <v>3.27</v>
+        <v>-8.87</v>
       </c>
       <c r="M37" t="str">
-        <v>1.41%</v>
+        <v>4.41%</v>
       </c>
       <c r="N37" t="str">
-        <v>210.68</v>
+        <v>314.83</v>
       </c>
       <c r="O37" t="str">
-        <v>53</v>
-      </c>
-      <c r="P37" t="str">
-        <v>-0.39%</v>
-      </c>
-      <c r="Q37" t="str">
-        <v>0.8197</v>
+        <v>583</v>
       </c>
       <c r="R37" t="str">
-        <v>0.8011</v>
+        <v>2.0507</v>
       </c>
       <c r="T37" t="str">
-        <v>5.19%</v>
+        <v>-0.15%</v>
       </c>
       <c r="U37" t="str">
-        <v>5.83%</v>
+        <v>0.72%</v>
       </c>
       <c r="V37" t="str">
-        <v>61.83%</v>
+        <v>6.16%</v>
       </c>
       <c r="W37" t="str">
-        <v>75.09%</v>
+        <v>10.29%</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>007153</v>
+        <v>012863</v>
       </c>
       <c r="B38" t="str">
-        <v>汇添富中证银行ETF联接A</v>
+        <v>汇添富中证电池主题ETF发起式联接C</v>
       </c>
       <c r="C38" t="str">
-        <v>201.63</v>
+        <v>171.28</v>
       </c>
       <c r="D38" t="str">
-        <v>1.81</v>
+        <v>4.76</v>
       </c>
       <c r="E38" t="str">
-        <v>0.90%</v>
+        <v>2.78%</v>
       </c>
       <c r="F38" t="str">
-        <v>-2.84</v>
+        <v>2.51</v>
       </c>
       <c r="G38" t="str">
-        <v>-1.39%</v>
+        <v>1.49%</v>
       </c>
       <c r="H38" t="str">
-        <v>-1.03</v>
+        <v>7.27</v>
       </c>
       <c r="I38" t="str">
-        <v>-1.39%</v>
+        <v>1.49%</v>
       </c>
       <c r="J38" t="str">
-        <v>6.33</v>
+        <v>0.63</v>
       </c>
       <c r="K38" t="str">
-        <v>-0.34</v>
+        <v>6.62</v>
       </c>
       <c r="L38" t="str">
-        <v>-0.34</v>
+        <v>6.62</v>
       </c>
       <c r="M38" t="str">
-        <v>1.63%</v>
+        <v>1.14%</v>
       </c>
       <c r="N38" t="str">
-        <v>138.19</v>
+        <v>210.68</v>
       </c>
       <c r="O38" t="str">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P38" t="str">
-        <v>0.90%</v>
+        <v>2.78%</v>
       </c>
       <c r="Q38" t="str">
-        <v>1.4722</v>
+        <v>0.8356</v>
       </c>
       <c r="R38" t="str">
-        <v>1.4796</v>
-      </c>
-      <c r="S38" t="str">
-        <v>1.41%</v>
+        <v>0.8011</v>
       </c>
       <c r="T38" t="str">
-        <v>-0.26%</v>
+        <v>5.72%</v>
       </c>
       <c r="U38" t="str">
-        <v>3.73%</v>
+        <v>9.30%</v>
       </c>
       <c r="V38" t="str">
-        <v>-8.34%</v>
+        <v>60.40%</v>
       </c>
       <c r="W38" t="str">
-        <v>10.46%</v>
+        <v>71.83%</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>501311</v>
+        <v>017512</v>
       </c>
       <c r="B39" t="str">
-        <v>嘉实恒生港股通新经济指数(LOF)A</v>
+        <v>广发北证50成份指数A</v>
       </c>
       <c r="C39" t="str">
-        <v>59.87</v>
+        <v>592.59</v>
       </c>
       <c r="D39" t="str">
-        <v>0.78</v>
+        <v>21.42</v>
       </c>
       <c r="E39" t="str">
-        <v>1.31%</v>
+        <v>3.61%</v>
       </c>
       <c r="F39" t="str">
-        <v>-0.67</v>
+        <v>19.58</v>
       </c>
       <c r="G39" t="str">
-        <v>-1.11%</v>
+        <v>3.42%</v>
       </c>
       <c r="H39" t="str">
-        <v>0.12</v>
+        <v>41.00</v>
       </c>
       <c r="I39" t="str">
-        <v>-1.11%</v>
+        <v>3.42%</v>
       </c>
       <c r="J39" t="str">
-        <v>2.39</v>
+        <v>15.50</v>
       </c>
       <c r="K39" t="str">
-        <v>3.80</v>
+        <v>45.51</v>
       </c>
       <c r="L39" t="str">
-        <v>3.80</v>
+        <v>45.51</v>
       </c>
       <c r="M39" t="str">
-        <v>0.49%</v>
+        <v>3.95%</v>
       </c>
       <c r="N39" t="str">
-        <v>50.46</v>
+        <v>328.07</v>
       </c>
       <c r="O39" t="str">
-        <v>573</v>
+        <v>63</v>
       </c>
       <c r="P39" t="str">
-        <v>1.31%</v>
+        <v>3.61%</v>
       </c>
       <c r="Q39" t="str">
-        <v>1.2021</v>
+        <v>1.8716</v>
       </c>
       <c r="R39" t="str">
-        <v>1.1998</v>
-      </c>
-      <c r="S39" t="str">
-        <v>1.12%</v>
+        <v>1.7466</v>
       </c>
       <c r="T39" t="str">
-        <v>0.62%</v>
+        <v>9.70%</v>
       </c>
       <c r="U39" t="str">
-        <v>-8.90%</v>
+        <v>8.80%</v>
       </c>
       <c r="V39" t="str">
-        <v>7.35%</v>
+        <v>10.27%</v>
       </c>
       <c r="W39" t="str">
-        <v>36.68%</v>
+        <v>48.59%</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>007605</v>
+        <v>006195</v>
       </c>
       <c r="B40" t="str">
-        <v>嘉实沪深300红利低波动ETF联接A</v>
+        <v>国金量化多因子A</v>
       </c>
       <c r="C40" t="str">
-        <v>70.62</v>
+        <v>90.97</v>
       </c>
       <c r="D40" t="str">
-        <v>0.38</v>
+        <v>1.63</v>
       </c>
       <c r="E40" t="str">
-        <v>0.53%</v>
+        <v>1.79%</v>
       </c>
       <c r="F40" t="str">
-        <v>-0.77</v>
+        <v>9.93</v>
       </c>
       <c r="G40" t="str">
-        <v>-1.08%</v>
+        <v>12.25%</v>
       </c>
       <c r="H40" t="str">
-        <v>-0.39</v>
+        <v>11.56</v>
       </c>
       <c r="I40" t="str">
-        <v>-1.08%</v>
+        <v>12.25%</v>
       </c>
       <c r="J40" t="str">
-        <v>0.36</v>
+        <v>2.76</v>
       </c>
       <c r="K40" t="str">
-        <v>0.21</v>
+        <v>4.86</v>
       </c>
       <c r="L40" t="str">
-        <v>0.21</v>
+        <v>4.86</v>
       </c>
       <c r="M40" t="str">
-        <v>0.57%</v>
+        <v>0.61%</v>
       </c>
       <c r="N40" t="str">
-        <v>55.55</v>
+        <v>27.53</v>
       </c>
       <c r="O40" t="str">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="P40" t="str">
-        <v>0.53%</v>
+        <v>1.79%</v>
       </c>
       <c r="Q40" t="str">
-        <v>1.2781</v>
+        <v>3.3636</v>
       </c>
       <c r="R40" t="str">
-        <v>1.2851</v>
-      </c>
-      <c r="S40" t="str">
-        <v>1.09%</v>
+        <v>2.9437</v>
       </c>
       <c r="T40" t="str">
-        <v>0.10%</v>
+        <v>13.80%</v>
       </c>
       <c r="U40" t="str">
-        <v>0.21%</v>
+        <v>15.83%</v>
       </c>
       <c r="V40" t="str">
-        <v>-4.34%</v>
+        <v>29.14%</v>
       </c>
       <c r="W40" t="str">
-        <v>2.13%</v>
+        <v>70.46%</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>008708</v>
+        <v>010052</v>
       </c>
       <c r="B41" t="str">
-        <v>建信富时100指数(QDII)C美元现汇</v>
+        <v>长城久嘉创新成长混合C</v>
       </c>
       <c r="C41" t="str">
-        <v>151.86</v>
+        <v>241.60</v>
       </c>
       <c r="D41" t="str">
-        <v>0</v>
+        <v>16.46</v>
       </c>
       <c r="E41" t="str">
-        <v>0%</v>
+        <v>6.81%</v>
       </c>
       <c r="F41" t="str">
-        <v>8.07</v>
+        <v>21.60</v>
       </c>
       <c r="G41" t="str">
-        <v>5.61%</v>
+        <v>9.82%</v>
       </c>
       <c r="H41" t="str">
-        <v>8.07</v>
+        <v>38.06</v>
       </c>
       <c r="I41" t="str">
-        <v>5.61%</v>
+        <v>9.82%</v>
       </c>
       <c r="J41" t="str">
-        <v>0.82</v>
+        <v>10.69</v>
       </c>
       <c r="K41" t="str">
-        <v>-1.61</v>
+        <v>26.50</v>
       </c>
       <c r="L41" t="str">
-        <v>-1.61</v>
+        <v>26.50</v>
       </c>
       <c r="M41" t="str">
-        <v>1.23%</v>
+        <v>1.61%</v>
       </c>
       <c r="N41" t="str">
-        <v>749.56</v>
+        <v>85.54</v>
       </c>
       <c r="O41" t="str">
-        <v>586</v>
+        <v>35</v>
+      </c>
+      <c r="P41" t="str">
+        <v>6.81%</v>
+      </c>
+      <c r="Q41" t="str">
+        <v>3.0169</v>
       </c>
       <c r="R41" t="str">
-        <v>0.1918</v>
+        <v>2.5719</v>
       </c>
       <c r="T41" t="str">
-        <v>4.87%</v>
+        <v>36.68%</v>
       </c>
       <c r="U41" t="str">
-        <v>5.80%</v>
+        <v>69.62%</v>
       </c>
       <c r="V41" t="str">
-        <v>12.12%</v>
+        <v>86.60%</v>
       </c>
       <c r="W41" t="str">
-        <v>29.54%</v>
+        <v>114.15%</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>018861</v>
+        <v>400032</v>
       </c>
       <c r="B42" t="str">
-        <v>景顺长城量化港股通股票C</v>
+        <v>东方主题精选混合</v>
       </c>
       <c r="C42" t="str">
-        <v>283.82</v>
+        <v>107.67</v>
       </c>
       <c r="D42" t="str">
-        <v>2.15</v>
+        <v>-0.15</v>
       </c>
       <c r="E42" t="str">
-        <v>0.76%</v>
+        <v>-0.14%</v>
       </c>
       <c r="F42" t="str">
-        <v>1.62</v>
+        <v>0.44</v>
       </c>
       <c r="G42" t="str">
-        <v>0.57%</v>
+        <v>0.41%</v>
       </c>
       <c r="H42" t="str">
-        <v>3.77</v>
+        <v>0.29</v>
       </c>
       <c r="I42" t="str">
-        <v>0.57%</v>
+        <v>0.41%</v>
       </c>
       <c r="J42" t="str">
-        <v>4.83</v>
+        <v>-2.81</v>
       </c>
       <c r="K42" t="str">
-        <v>11.30</v>
+        <v>1.21</v>
       </c>
       <c r="L42" t="str">
-        <v>11.30</v>
+        <v>1.21</v>
       </c>
       <c r="M42" t="str">
-        <v>2.30%</v>
+        <v>0.72%</v>
       </c>
       <c r="N42" t="str">
-        <v>243.87</v>
+        <v>96.57</v>
       </c>
       <c r="O42" t="str">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="P42" t="str">
-        <v>0.76%</v>
+        <v>-0.14%</v>
       </c>
       <c r="Q42" t="str">
-        <v>1.1726</v>
+        <v>1.1134</v>
       </c>
       <c r="R42" t="str">
-        <v>1.1572</v>
+        <v>1.1104</v>
       </c>
       <c r="T42" t="str">
-        <v>1.26%</v>
+        <v>0.66%</v>
       </c>
       <c r="U42" t="str">
-        <v>-0.29%</v>
+        <v>-1.71%</v>
       </c>
       <c r="V42" t="str">
-        <v>10.43%</v>
+        <v>7.92%</v>
       </c>
       <c r="W42" t="str">
-        <v>36.07%</v>
+        <v>20.67%</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>501225</v>
+        <v>018495</v>
       </c>
       <c r="B43" t="str">
-        <v>景顺长城全球半导体芯片股票A(QDII-LOF)(人民币)</v>
+        <v>融通产业趋势臻选股票C</v>
       </c>
       <c r="C43" t="str">
-        <v>583.04</v>
+        <v>333.65</v>
       </c>
       <c r="D43" t="str">
-        <v>0</v>
+        <v>-7.84</v>
       </c>
       <c r="E43" t="str">
-        <v>0%</v>
+        <v>-2.35%</v>
       </c>
       <c r="F43" t="str">
-        <v>62.12</v>
+        <v>20.74</v>
       </c>
       <c r="G43" t="str">
-        <v>11.93%</v>
+        <v>6.63%</v>
       </c>
       <c r="H43" t="str">
-        <v>62.12</v>
+        <v>12.90</v>
       </c>
       <c r="I43" t="str">
-        <v>11.93%</v>
+        <v>6.63%</v>
       </c>
       <c r="J43" t="str">
-        <v>12.12</v>
+        <v>-5.81</v>
       </c>
       <c r="K43" t="str">
-        <v>37.16</v>
+        <v>-4.21</v>
       </c>
       <c r="L43" t="str">
-        <v>37.16</v>
+        <v>-4.21</v>
       </c>
       <c r="M43" t="str">
-        <v>4.73%</v>
+        <v>2.23%</v>
       </c>
       <c r="N43" t="str">
-        <v>271.07</v>
+        <v>150.93</v>
       </c>
       <c r="O43" t="str">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="P43" t="str">
+        <v>-2.35%</v>
+      </c>
+      <c r="Q43" t="str">
+        <v>2.1587</v>
       </c>
       <c r="R43" t="str">
-        <v>1.9217</v>
+        <v>2.0732</v>
       </c>
       <c r="T43" t="str">
-        <v>5.67%</v>
+        <v>-0.05%</v>
       </c>
       <c r="U43" t="str">
-        <v>8.68%</v>
+        <v>15.66%</v>
       </c>
       <c r="V43" t="str">
-        <v>36.22%</v>
+        <v>56.79%</v>
       </c>
       <c r="W43" t="str">
-        <v>44.77%</v>
+        <v>100.02%</v>
       </c>
     </row>
     <row r="44">
@@ -3293,7 +3317,7 @@
         <v>美国消费</v>
       </c>
       <c r="C44" t="str">
-        <v>371.82</v>
+        <v>271.80</v>
       </c>
       <c r="D44" t="str">
         <v>0</v>
@@ -3302,383 +3326,383 @@
         <v>0%</v>
       </c>
       <c r="F44" t="str">
-        <v>14.95</v>
+        <v>4.14</v>
       </c>
       <c r="G44" t="str">
-        <v>4.19%</v>
+        <v>1.55%</v>
       </c>
       <c r="H44" t="str">
-        <v>14.95</v>
+        <v>4.14</v>
       </c>
       <c r="I44" t="str">
-        <v>4.19%</v>
+        <v>1.55%</v>
       </c>
       <c r="J44" t="str">
-        <v>3.89</v>
+        <v>-5.50</v>
       </c>
       <c r="K44" t="str">
-        <v>10.37</v>
+        <v>-0.44</v>
       </c>
       <c r="L44" t="str">
-        <v>10.37</v>
+        <v>-0.44</v>
       </c>
       <c r="M44" t="str">
-        <v>3.01%</v>
+        <v>1.81%</v>
       </c>
       <c r="N44" t="str">
-        <v>117.85</v>
+        <v>88.39</v>
       </c>
       <c r="O44" t="str">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="R44" t="str">
         <v>3.0282</v>
       </c>
       <c r="T44" t="str">
-        <v>4.13%</v>
+        <v>-1.06%</v>
       </c>
       <c r="U44" t="str">
-        <v>3.89%</v>
+        <v>-0.07%</v>
       </c>
       <c r="V44" t="str">
-        <v>10.55%</v>
+        <v>5.85%</v>
       </c>
       <c r="W44" t="str">
-        <v>8.61%</v>
+        <v>2.91%</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>008811</v>
+        <v>004206</v>
       </c>
       <c r="B45" t="str">
-        <v>鹏华科技创新混合</v>
+        <v>华商元亨混合A</v>
       </c>
       <c r="C45" t="str">
-        <v>343.10</v>
+        <v>331.73</v>
       </c>
       <c r="D45" t="str">
-        <v>-2.36</v>
+        <v>0.99</v>
       </c>
       <c r="E45" t="str">
-        <v>-0.69%</v>
+        <v>0.30%</v>
       </c>
       <c r="F45" t="str">
-        <v>42.15</v>
+        <v>13.67</v>
       </c>
       <c r="G45" t="str">
-        <v>14.01%</v>
+        <v>4.30%</v>
       </c>
       <c r="H45" t="str">
-        <v>39.79</v>
+        <v>62.33</v>
       </c>
       <c r="I45" t="str">
-        <v>14.01%</v>
+        <v>4.30%</v>
       </c>
       <c r="J45" t="str">
-        <v>2.54</v>
+        <v>-1.32</v>
       </c>
       <c r="K45" t="str">
-        <v>27.80</v>
+        <v>6.40</v>
       </c>
       <c r="L45" t="str">
-        <v>27.80</v>
+        <v>6.40</v>
       </c>
       <c r="M45" t="str">
-        <v>2.78%</v>
+        <v>2.21%</v>
       </c>
       <c r="N45" t="str">
-        <v>182.47</v>
+        <v>106.66</v>
       </c>
       <c r="O45" t="str">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="P45" t="str">
-        <v>-0.69%</v>
+        <v>0.30%</v>
       </c>
       <c r="Q45" t="str">
-        <v>1.8674</v>
+        <v>3.1195</v>
       </c>
       <c r="R45" t="str">
-        <v>1.6493</v>
+        <v>2.9820</v>
       </c>
       <c r="T45" t="str">
-        <v>13.45%</v>
+        <v>5.96%</v>
       </c>
       <c r="U45" t="str">
-        <v>10.85%</v>
+        <v>7.85%</v>
       </c>
       <c r="V45" t="str">
-        <v>40.17%</v>
+        <v>46.44%</v>
       </c>
       <c r="W45" t="str">
-        <v>53.31%</v>
+        <v>77.55%</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>018495</v>
+        <v>001270</v>
       </c>
       <c r="B46" t="str">
-        <v>融通产业趋势臻选股票C</v>
+        <v>英大灵活配置A</v>
       </c>
       <c r="C46" t="str">
-        <v>254.01</v>
+        <v>269.54</v>
       </c>
       <c r="D46" t="str">
-        <v>0.17</v>
+        <v>4.36</v>
       </c>
       <c r="E46" t="str">
-        <v>0.07%</v>
+        <v>1.62%</v>
       </c>
       <c r="F46" t="str">
-        <v>11.11</v>
+        <v>19.54</v>
       </c>
       <c r="G46" t="str">
-        <v>4.57%</v>
+        <v>7.81%</v>
       </c>
       <c r="H46" t="str">
-        <v>11.28</v>
+        <v>23.90</v>
       </c>
       <c r="I46" t="str">
-        <v>4.57%</v>
+        <v>7.81%</v>
       </c>
       <c r="J46" t="str">
-        <v>-8.17</v>
+        <v>6.32</v>
       </c>
       <c r="K46" t="str">
-        <v>-5.83</v>
+        <v>11.46</v>
       </c>
       <c r="L46" t="str">
-        <v>-5.83</v>
+        <v>11.46</v>
       </c>
       <c r="M46" t="str">
-        <v>2.06%</v>
+        <v>1.80%</v>
       </c>
       <c r="N46" t="str">
-        <v>118.65</v>
+        <v>169.69</v>
       </c>
       <c r="O46" t="str">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P46" t="str">
-        <v>0.07%</v>
+        <v>1.62%</v>
       </c>
       <c r="Q46" t="str">
-        <v>2.1423</v>
+        <v>1.6141</v>
       </c>
       <c r="R46" t="str">
-        <v>2.0472</v>
+        <v>1.4733</v>
       </c>
       <c r="T46" t="str">
-        <v>1.35%</v>
+        <v>19.40%</v>
       </c>
       <c r="U46" t="str">
-        <v>11.37%</v>
+        <v>14.38%</v>
       </c>
       <c r="V46" t="str">
-        <v>68.89%</v>
+        <v>35.34%</v>
       </c>
       <c r="W46" t="str">
-        <v>107.52%</v>
+        <v>37.34%</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>018048</v>
+        <v>006486</v>
       </c>
       <c r="B47" t="str">
-        <v>申万菱信数字产业股票型发起式A</v>
+        <v>广发中证1000ETF联接A</v>
       </c>
       <c r="C47" t="str">
-        <v>167.85</v>
+        <v>426.76</v>
       </c>
       <c r="D47" t="str">
-        <v>1.56</v>
+        <v>7.76</v>
       </c>
       <c r="E47" t="str">
-        <v>0.93%</v>
+        <v>1.82%</v>
       </c>
       <c r="F47" t="str">
-        <v>42.05</v>
+        <v>34.99</v>
       </c>
       <c r="G47" t="str">
-        <v>33.42%</v>
+        <v>8.93%</v>
       </c>
       <c r="H47" t="str">
-        <v>43.61</v>
+        <v>42.75</v>
       </c>
       <c r="I47" t="str">
-        <v>33.42%</v>
+        <v>8.93%</v>
       </c>
       <c r="J47" t="str">
-        <v>-2.44</v>
+        <v>9.59</v>
       </c>
       <c r="K47" t="str">
-        <v>38.05</v>
+        <v>32.62</v>
       </c>
       <c r="L47" t="str">
-        <v>38.05</v>
+        <v>32.62</v>
       </c>
       <c r="M47" t="str">
-        <v>1.36%</v>
+        <v>2.85%</v>
       </c>
       <c r="N47" t="str">
-        <v>106.32</v>
+        <v>245.56</v>
       </c>
       <c r="O47" t="str">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="P47" t="str">
-        <v>0.93%</v>
+        <v>1.82%</v>
       </c>
       <c r="Q47" t="str">
-        <v>1.5934</v>
+        <v>1.7695</v>
       </c>
       <c r="R47" t="str">
-        <v>1.1832</v>
+        <v>1.5954</v>
       </c>
       <c r="T47" t="str">
-        <v>39.02%</v>
+        <v>13.59%</v>
       </c>
       <c r="U47" t="str">
-        <v>27.34%</v>
+        <v>14.81%</v>
       </c>
       <c r="V47" t="str">
-        <v>53.69%</v>
+        <v>26.39%</v>
       </c>
       <c r="W47" t="str">
-        <v>66.79%</v>
+        <v>43.49%</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>007721</v>
+        <v>005551</v>
       </c>
       <c r="B48" t="str">
-        <v>天弘标普500发起(QDII-FOF)A</v>
+        <v>汇安成长优选混合C</v>
       </c>
       <c r="C48" t="str">
-        <v>684.94</v>
+        <v>91.62</v>
       </c>
       <c r="D48" t="str">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E48" t="str">
-        <v>0%</v>
+        <v>0.05%</v>
       </c>
       <c r="F48" t="str">
-        <v>24.75</v>
+        <v>11.62</v>
       </c>
       <c r="G48" t="str">
-        <v>3.75%</v>
+        <v>14.53%</v>
       </c>
       <c r="H48" t="str">
-        <v>24.75</v>
+        <v>11.66</v>
       </c>
       <c r="I48" t="str">
-        <v>3.75%</v>
+        <v>14.53%</v>
       </c>
       <c r="J48" t="str">
-        <v>3.44</v>
+        <v>-1.71</v>
       </c>
       <c r="K48" t="str">
-        <v>0.71</v>
+        <v>9.80</v>
       </c>
       <c r="L48" t="str">
-        <v>0.71</v>
+        <v>9.80</v>
       </c>
       <c r="M48" t="str">
-        <v>5.55%</v>
+        <v>0.61%</v>
       </c>
       <c r="N48" t="str">
-        <v>321.93</v>
+        <v>35.28</v>
       </c>
       <c r="O48" t="str">
-        <v>573</v>
+        <v>602</v>
+      </c>
+      <c r="P48" t="str">
+        <v>0.05%</v>
+      </c>
+      <c r="Q48" t="str">
+        <v>2.5982</v>
       </c>
       <c r="R48" t="str">
-        <v>2.0507</v>
+        <v>2.2676</v>
       </c>
       <c r="T48" t="str">
-        <v>0.79%</v>
+        <v>10.19%</v>
       </c>
       <c r="U48" t="str">
-        <v>1.87%</v>
+        <v>24.73%</v>
       </c>
       <c r="V48" t="str">
-        <v>8.39%</v>
+        <v>79.57%</v>
       </c>
       <c r="W48" t="str">
-        <v>13.87%</v>
+        <v>146.28%</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>025833</v>
+        <v>501225</v>
       </c>
       <c r="B49" t="str">
-        <v>天弘中证电网设备主题指数发起C</v>
+        <v>景顺长城全球半导体芯片股票A(QDII-LOF)(人民币)</v>
       </c>
       <c r="C49" t="str">
-        <v>105.09</v>
+        <v>686.12</v>
       </c>
       <c r="D49" t="str">
-        <v>-1.18</v>
+        <v>0</v>
       </c>
       <c r="E49" t="str">
-        <v>-1.12%</v>
+        <v>0%</v>
       </c>
       <c r="F49" t="str">
-        <v>6.45</v>
+        <v>95.20</v>
       </c>
       <c r="G49" t="str">
-        <v>6.53%</v>
+        <v>16.11%</v>
       </c>
       <c r="H49" t="str">
-        <v>5.27</v>
+        <v>95.20</v>
       </c>
       <c r="I49" t="str">
-        <v>6.53%</v>
+        <v>16.11%</v>
       </c>
       <c r="J49" t="str">
-        <v>0.43</v>
+        <v>21.17</v>
       </c>
       <c r="K49" t="str">
-        <v>4.52</v>
+        <v>70.23</v>
       </c>
       <c r="L49" t="str">
-        <v>4.52</v>
+        <v>70.23</v>
       </c>
       <c r="M49" t="str">
-        <v>0.85%</v>
+        <v>4.58%</v>
       </c>
       <c r="N49" t="str">
-        <v>91.81</v>
+        <v>302.60</v>
       </c>
       <c r="O49" t="str">
-        <v>25</v>
-      </c>
-      <c r="P49" t="str">
-        <v>-1.12%</v>
-      </c>
-      <c r="Q49" t="str">
-        <v>1.1318</v>
+        <v>64</v>
       </c>
       <c r="R49" t="str">
-        <v>1.0744</v>
+        <v>1.9528</v>
       </c>
       <c r="T49" t="str">
-        <v>7.70%</v>
+        <v>15.50%</v>
       </c>
       <c r="U49" t="str">
-        <v>0%</v>
+        <v>16.57%</v>
       </c>
       <c r="V49" t="str">
-        <v>0%</v>
+        <v>41.87%</v>
       </c>
       <c r="W49" t="str">
-        <v>0%</v>
+        <v>47.43%</v>
       </c>
     </row>
     <row r="50">
@@ -3689,552 +3713,880 @@
         <v>万家180指数A</v>
       </c>
       <c r="C50" t="str">
-        <v>280.85</v>
+        <v>278.33</v>
       </c>
       <c r="D50" t="str">
-        <v>0.09</v>
+        <v>-0.86</v>
       </c>
       <c r="E50" t="str">
-        <v>0.03%</v>
+        <v>-0.31%</v>
       </c>
       <c r="F50" t="str">
-        <v>11.42</v>
+        <v>8.90</v>
       </c>
       <c r="G50" t="str">
-        <v>4.24%</v>
+        <v>3.30%</v>
       </c>
       <c r="H50" t="str">
-        <v>11.51</v>
+        <v>8.04</v>
       </c>
       <c r="I50" t="str">
-        <v>4.24%</v>
+        <v>3.30%</v>
       </c>
       <c r="J50" t="str">
-        <v>0.83</v>
+        <v>0.15</v>
       </c>
       <c r="K50" t="str">
-        <v>11.57</v>
+        <v>8.10</v>
       </c>
       <c r="L50" t="str">
-        <v>11.57</v>
+        <v>8.10</v>
       </c>
       <c r="M50" t="str">
-        <v>2.28%</v>
+        <v>1.86%</v>
       </c>
       <c r="N50" t="str">
         <v>231.00</v>
       </c>
       <c r="O50" t="str">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="P50" t="str">
-        <v>0.03%</v>
+        <v>-0.31%</v>
       </c>
       <c r="Q50" t="str">
-        <v>1.2162</v>
+        <v>1.2012</v>
       </c>
       <c r="R50" t="str">
         <v>1.1664</v>
       </c>
       <c r="T50" t="str">
-        <v>5.51%</v>
+        <v>3.47%</v>
       </c>
       <c r="U50" t="str">
-        <v>2.92%</v>
+        <v>2.02%</v>
       </c>
       <c r="V50" t="str">
-        <v>17.91%</v>
+        <v>13.14%</v>
       </c>
       <c r="W50" t="str">
-        <v>27.07%</v>
+        <v>24.32%</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>519196</v>
+        <v>013048</v>
       </c>
       <c r="B51" t="str">
-        <v>万家新兴蓝筹A</v>
+        <v>富国中证新能源汽车指数C</v>
       </c>
       <c r="C51" t="str">
-        <v>356.68</v>
+        <v>283.79</v>
       </c>
       <c r="D51" t="str">
-        <v>-2.77</v>
+        <v>7.31</v>
       </c>
       <c r="E51" t="str">
-        <v>-0.78%</v>
+        <v>2.58%</v>
       </c>
       <c r="F51" t="str">
-        <v>34.98</v>
+        <v>10.59</v>
       </c>
       <c r="G51" t="str">
-        <v>10.87%</v>
+        <v>3.88%</v>
       </c>
       <c r="H51" t="str">
-        <v>32.21</v>
+        <v>17.90</v>
       </c>
       <c r="I51" t="str">
-        <v>10.87%</v>
+        <v>3.88%</v>
       </c>
       <c r="J51" t="str">
-        <v>-11.90</v>
+        <v>5.03</v>
       </c>
       <c r="K51" t="str">
-        <v>0.90</v>
+        <v>10.46</v>
       </c>
       <c r="L51" t="str">
-        <v>0.90</v>
+        <v>10.46</v>
       </c>
       <c r="M51" t="str">
-        <v>2.89%</v>
+        <v>1.89%</v>
       </c>
       <c r="N51" t="str">
-        <v>77.65</v>
+        <v>236.89</v>
       </c>
       <c r="O51" t="str">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="P51" t="str">
-        <v>-0.78%</v>
+        <v>2.58%</v>
       </c>
       <c r="Q51" t="str">
-        <v>4.5578</v>
+        <v>1.2288</v>
       </c>
       <c r="R51" t="str">
-        <v>4.1429</v>
+        <v>1.1533</v>
       </c>
       <c r="T51" t="str">
-        <v>5.60%</v>
+        <v>7.87%</v>
       </c>
       <c r="U51" t="str">
-        <v>10.64%</v>
+        <v>10.39%</v>
       </c>
       <c r="V51" t="str">
-        <v>80.64%</v>
+        <v>46.66%</v>
       </c>
       <c r="W51" t="str">
-        <v>84.92%</v>
+        <v>61.52%</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>017387</v>
+        <v>018861</v>
       </c>
       <c r="B52" t="str">
-        <v>兴证全球安悦稳健养老一年持有混合(FOF)Y</v>
+        <v>景顺长城量化港股通股票C</v>
       </c>
       <c r="C52" t="str">
-        <v>84.76</v>
+        <v>263.34</v>
       </c>
       <c r="D52" t="str">
-        <v>0.20</v>
+        <v>0.77</v>
       </c>
       <c r="E52" t="str">
-        <v>0.24%</v>
+        <v>0.29%</v>
       </c>
       <c r="F52" t="str">
-        <v>4.76</v>
+        <v>4.28</v>
       </c>
       <c r="G52" t="str">
-        <v>5.94%</v>
+        <v>1.65%</v>
       </c>
       <c r="H52" t="str">
-        <v>4.96</v>
+        <v>5.05</v>
       </c>
       <c r="I52" t="str">
-        <v>5.94%</v>
+        <v>1.65%</v>
       </c>
       <c r="J52" t="str">
-        <v>0.05</v>
+        <v>0.17</v>
       </c>
       <c r="K52" t="str">
-        <v>0.71</v>
+        <v>12.58</v>
       </c>
       <c r="L52" t="str">
-        <v>0.71</v>
+        <v>12.58</v>
       </c>
       <c r="M52" t="str">
-        <v>0.69%</v>
+        <v>1.76%</v>
       </c>
       <c r="N52" t="str">
-        <v>71.53</v>
+        <v>223.87</v>
       </c>
       <c r="O52" t="str">
-        <v>586</v>
+        <v>46</v>
       </c>
       <c r="P52" t="str">
-        <v>0.24%</v>
+        <v>0.29%</v>
       </c>
       <c r="Q52" t="str">
-        <v>1.1877</v>
+        <v>1.1798</v>
       </c>
       <c r="R52" t="str">
-        <v>1.1184</v>
+        <v>1.1572</v>
       </c>
       <c r="T52" t="str">
-        <v>0.89%</v>
+        <v>3.36%</v>
       </c>
       <c r="U52" t="str">
-        <v>0.26%</v>
+        <v>1.70%</v>
       </c>
       <c r="V52" t="str">
-        <v>5.44%</v>
+        <v>6.28%</v>
       </c>
       <c r="W52" t="str">
-        <v>10.58%</v>
+        <v>35.06%</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>010391</v>
+        <v>007844</v>
       </c>
       <c r="B53" t="str">
-        <v>易方达战略新兴产业股票A</v>
+        <v>华宝油气C</v>
       </c>
       <c r="C53" t="str">
-        <v>379.46</v>
+        <v>338.90</v>
       </c>
       <c r="D53" t="str">
-        <v>-1.68</v>
+        <v>0</v>
       </c>
       <c r="E53" t="str">
-        <v>-0.44%</v>
+        <v>0%</v>
       </c>
       <c r="F53" t="str">
-        <v>21.64</v>
+        <v>9.27</v>
       </c>
       <c r="G53" t="str">
-        <v>6.05%</v>
+        <v>2.81%</v>
       </c>
       <c r="H53" t="str">
-        <v>19.96</v>
+        <v>9.27</v>
       </c>
       <c r="I53" t="str">
-        <v>6.05%</v>
+        <v>2.81%</v>
       </c>
       <c r="J53" t="str">
-        <v>-0.66</v>
+        <v>10.06</v>
       </c>
       <c r="K53" t="str">
-        <v>3.63</v>
+        <v>15.73</v>
       </c>
       <c r="L53" t="str">
-        <v>3.63</v>
+        <v>15.73</v>
       </c>
       <c r="M53" t="str">
-        <v>3.08%</v>
+        <v>2.26%</v>
       </c>
       <c r="N53" t="str">
-        <v>217.13</v>
+        <v>467.96</v>
       </c>
       <c r="O53" t="str">
-        <v>53</v>
-      </c>
-      <c r="P53" t="str">
-        <v>-0.44%</v>
-      </c>
-      <c r="Q53" t="str">
-        <v>1.7399</v>
+        <v>596</v>
       </c>
       <c r="R53" t="str">
-        <v>1.6480</v>
+        <v>0.7044</v>
       </c>
       <c r="T53" t="str">
-        <v>3.77%</v>
+        <v>6.53%</v>
       </c>
       <c r="U53" t="str">
-        <v>8.43%</v>
+        <v>6.37%</v>
       </c>
       <c r="V53" t="str">
-        <v>81.44%</v>
+        <v>4.11%</v>
       </c>
       <c r="W53" t="str">
-        <v>116.26%</v>
+        <v>-7.99%</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>020114</v>
+        <v>008811</v>
       </c>
       <c r="B54" t="str">
-        <v>易方达中证沪港深500ETF联接发起式C</v>
+        <v>鹏华科技创新混合</v>
       </c>
       <c r="C54" t="str">
-        <v>81.02</v>
+        <v>418.75</v>
       </c>
       <c r="D54" t="str">
-        <v>0.47</v>
+        <v>4.80</v>
       </c>
       <c r="E54" t="str">
-        <v>0.58%</v>
+        <v>1.15%</v>
       </c>
       <c r="F54" t="str">
-        <v>2.31</v>
+        <v>39.87</v>
       </c>
       <c r="G54" t="str">
-        <v>2.94%</v>
+        <v>10.52%</v>
       </c>
       <c r="H54" t="str">
-        <v>2.78</v>
+        <v>44.66</v>
       </c>
       <c r="I54" t="str">
-        <v>2.94%</v>
+        <v>10.52%</v>
       </c>
       <c r="J54" t="str">
-        <v>1.28</v>
+        <v>2.00</v>
       </c>
       <c r="K54" t="str">
-        <v>3.25</v>
+        <v>32.67</v>
       </c>
       <c r="L54" t="str">
-        <v>3.25</v>
+        <v>32.67</v>
       </c>
       <c r="M54" t="str">
-        <v>0.66%</v>
+        <v>2.79%</v>
       </c>
       <c r="N54" t="str">
-        <v>52.64</v>
+        <v>222.94</v>
       </c>
       <c r="O54" t="str">
-        <v>36</v>
+        <v>602</v>
       </c>
       <c r="P54" t="str">
-        <v>0.58%</v>
+        <v>1.15%</v>
       </c>
       <c r="Q54" t="str">
-        <v>1.5481</v>
+        <v>1.8998</v>
       </c>
       <c r="R54" t="str">
-        <v>1.4953</v>
+        <v>1.6995</v>
       </c>
       <c r="T54" t="str">
-        <v>3.22%</v>
+        <v>13.31%</v>
       </c>
       <c r="U54" t="str">
-        <v>2.10%</v>
+        <v>14.55%</v>
       </c>
       <c r="V54" t="str">
-        <v>15.95%</v>
+        <v>35.13%</v>
       </c>
       <c r="W54" t="str">
-        <v>34.12%</v>
+        <v>48.28%</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>001270</v>
+        <v>025833</v>
       </c>
       <c r="B55" t="str">
-        <v>英大灵活配置A</v>
+        <v>天弘中证电网设备主题指数发起C</v>
       </c>
       <c r="C55" t="str">
-        <v>186.95</v>
+        <v>192.51</v>
       </c>
       <c r="D55" t="str">
-        <v>-0.18</v>
+        <v>1.59</v>
       </c>
       <c r="E55" t="str">
-        <v>-0.09%</v>
+        <v>0.82%</v>
       </c>
       <c r="F55" t="str">
-        <v>16.95</v>
+        <v>13.86</v>
       </c>
       <c r="G55" t="str">
-        <v>9.97%</v>
+        <v>7.76%</v>
       </c>
       <c r="H55" t="str">
-        <v>16.77</v>
+        <v>15.45</v>
       </c>
       <c r="I55" t="str">
-        <v>9.97%</v>
+        <v>7.76%</v>
       </c>
       <c r="J55" t="str">
-        <v>2.97</v>
+        <v>4.26</v>
       </c>
       <c r="K55" t="str">
-        <v>4.33</v>
+        <v>14.69</v>
       </c>
       <c r="L55" t="str">
-        <v>4.33</v>
+        <v>14.69</v>
       </c>
       <c r="M55" t="str">
-        <v>1.52%</v>
+        <v>1.28%</v>
       </c>
       <c r="N55" t="str">
-        <v>118.91</v>
+        <v>157.64</v>
       </c>
       <c r="O55" t="str">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="P55" t="str">
-        <v>-0.09%</v>
+        <v>0.82%</v>
       </c>
       <c r="Q55" t="str">
-        <v>1.5707</v>
+        <v>1.2313</v>
       </c>
       <c r="R55" t="str">
-        <v>1.4297</v>
+        <v>1.1333</v>
       </c>
       <c r="T55" t="str">
-        <v>13.33%</v>
+        <v>14.27%</v>
       </c>
       <c r="U55" t="str">
-        <v>2.14%</v>
+        <v>23.03%</v>
       </c>
       <c r="V55" t="str">
-        <v>40.84%</v>
+        <v>23.03%</v>
       </c>
       <c r="W55" t="str">
-        <v>38.92%</v>
+        <v>23.03%</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>010052</v>
+        <v>161022</v>
       </c>
       <c r="B56" t="str">
-        <v>长城久嘉创新成长混合C</v>
+        <v>富国创业板ETF联接A</v>
       </c>
       <c r="C56" t="str">
-        <v>195.44</v>
+        <v>287.11</v>
       </c>
       <c r="D56" t="str">
-        <v>-9.03</v>
+        <v>1.71</v>
       </c>
       <c r="E56" t="str">
-        <v>-4.62%</v>
+        <v>0.60%</v>
       </c>
       <c r="F56" t="str">
-        <v>45.44</v>
+        <v>7.72</v>
       </c>
       <c r="G56" t="str">
-        <v>30.29%</v>
+        <v>2.76%</v>
       </c>
       <c r="H56" t="str">
-        <v>36.41</v>
+        <v>9.43</v>
       </c>
       <c r="I56" t="str">
-        <v>30.29%</v>
+        <v>2.76%</v>
       </c>
       <c r="J56" t="str">
-        <v>13.14</v>
+        <v>-1.82</v>
       </c>
       <c r="K56" t="str">
-        <v>24.85</v>
+        <v>6.61</v>
       </c>
       <c r="L56" t="str">
-        <v>24.85</v>
+        <v>6.61</v>
       </c>
       <c r="M56" t="str">
-        <v>1.58%</v>
+        <v>1.92%</v>
       </c>
       <c r="N56" t="str">
-        <v>61.22</v>
+        <v>239.30</v>
       </c>
       <c r="O56" t="str">
-        <v>25</v>
+        <v>598</v>
       </c>
       <c r="P56" t="str">
-        <v>-4.62%</v>
+        <v>0.60%</v>
       </c>
       <c r="Q56" t="str">
-        <v>3.0449</v>
+        <v>1.2069</v>
       </c>
       <c r="R56" t="str">
-        <v>2.4502</v>
+        <v>1.1675</v>
       </c>
       <c r="T56" t="str">
-        <v>43.54%</v>
+        <v>4.13%</v>
       </c>
       <c r="U56" t="str">
-        <v>72.57%</v>
+        <v>8.75%</v>
       </c>
       <c r="V56" t="str">
-        <v>103.31%</v>
+        <v>42.18%</v>
       </c>
       <c r="W56" t="str">
-        <v>138.92%</v>
+        <v>57.88%</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>010341</v>
+        <v>010034</v>
       </c>
       <c r="B57" t="str">
-        <v>招商产业精选股票A</v>
+        <v>安信成长精选混合C</v>
       </c>
       <c r="C57" t="str">
-        <v>268.32</v>
+        <v>118.32</v>
       </c>
       <c r="D57" t="str">
-        <v>0.92</v>
+        <v>-1.86</v>
       </c>
       <c r="E57" t="str">
-        <v>0.34%</v>
+        <v>-1.57%</v>
       </c>
       <c r="F57" t="str">
-        <v>10.22</v>
+        <v>9.37</v>
       </c>
       <c r="G57" t="str">
-        <v>3.96%</v>
+        <v>8.60%</v>
       </c>
       <c r="H57" t="str">
-        <v>11.14</v>
+        <v>7.50</v>
       </c>
       <c r="I57" t="str">
-        <v>3.96%</v>
+        <v>8.60%</v>
       </c>
       <c r="J57" t="str">
-        <v>0.06</v>
+        <v>-1.60</v>
       </c>
       <c r="K57" t="str">
-        <v>12.29</v>
+        <v>7.50</v>
       </c>
       <c r="L57" t="str">
-        <v>12.29</v>
+        <v>7.50</v>
       </c>
       <c r="M57" t="str">
-        <v>2.17%</v>
+        <v>0.79%</v>
       </c>
       <c r="N57" t="str">
-        <v>214.95</v>
+        <v>75.28</v>
       </c>
       <c r="O57" t="str">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="P57" t="str">
-        <v>0.34%</v>
+        <v>-1.57%</v>
       </c>
       <c r="Q57" t="str">
-        <v>1.2526</v>
+        <v>1.5470</v>
       </c>
       <c r="R57" t="str">
-        <v>1.2007</v>
+        <v>1.4473</v>
       </c>
       <c r="T57" t="str">
-        <v>6.65%</v>
+        <v>3.74%</v>
       </c>
       <c r="U57" t="str">
-        <v>1.05%</v>
+        <v>8.32%</v>
       </c>
       <c r="V57" t="str">
-        <v>7.98%</v>
+        <v>34.64%</v>
       </c>
       <c r="W57" t="str">
-        <v>30.66%</v>
+        <v>99.76%</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>022327</v>
+      </c>
+      <c r="B58" t="str">
+        <v>宏利高端装备股票A</v>
+      </c>
+      <c r="C58" t="str">
+        <v>224.89</v>
+      </c>
+      <c r="D58" t="str">
+        <v>1.34</v>
+      </c>
+      <c r="E58" t="str">
+        <v>0.60%</v>
+      </c>
+      <c r="F58" t="str">
+        <v>34.89</v>
+      </c>
+      <c r="G58" t="str">
+        <v>18.36%</v>
+      </c>
+      <c r="H58" t="str">
+        <v>36.23</v>
+      </c>
+      <c r="I58" t="str">
+        <v>18.36%</v>
+      </c>
+      <c r="J58" t="str">
+        <v>17.85</v>
+      </c>
+      <c r="K58" t="str">
+        <v>36.23</v>
+      </c>
+      <c r="L58" t="str">
+        <v>36.23</v>
+      </c>
+      <c r="M58" t="str">
+        <v>1.50%</v>
+      </c>
+      <c r="N58" t="str">
+        <v>134.18</v>
+      </c>
+      <c r="O58" t="str">
+        <v>11</v>
+      </c>
+      <c r="P58" t="str">
+        <v>0.60%</v>
+      </c>
+      <c r="Q58" t="str">
+        <v>1.6860</v>
+      </c>
+      <c r="R58" t="str">
+        <v>1.4160</v>
+      </c>
+      <c r="T58" t="str">
+        <v>20.04%</v>
+      </c>
+      <c r="U58" t="str">
+        <v>32.92%</v>
+      </c>
+      <c r="V58" t="str">
+        <v>49.04%</v>
+      </c>
+      <c r="W58" t="str">
+        <v>68.51%</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>010391</v>
+      </c>
+      <c r="B59" t="str">
+        <v>易方达战略新兴产业股票A</v>
+      </c>
+      <c r="C59" t="str">
+        <v>451.93</v>
+      </c>
+      <c r="D59" t="str">
+        <v>-12.89</v>
+      </c>
+      <c r="E59" t="str">
+        <v>-2.85%</v>
+      </c>
+      <c r="F59" t="str">
+        <v>34.11</v>
+      </c>
+      <c r="G59" t="str">
+        <v>8.16%</v>
+      </c>
+      <c r="H59" t="str">
+        <v>34.93</v>
+      </c>
+      <c r="I59" t="str">
+        <v>11.44%</v>
+      </c>
+      <c r="J59" t="str">
+        <v>21.22</v>
+      </c>
+      <c r="K59" t="str">
+        <v>18.60</v>
+      </c>
+      <c r="L59" t="str">
+        <v>18.60</v>
+      </c>
+      <c r="M59" t="str">
+        <v>3.02%</v>
+      </c>
+      <c r="N59" t="str">
+        <v>251.00</v>
+      </c>
+      <c r="O59" t="str">
+        <v>1</v>
+      </c>
+      <c r="P59" t="str">
+        <v>-2.85%</v>
+      </c>
+      <c r="Q59" t="str">
+        <v>1.7492</v>
+      </c>
+      <c r="R59" t="str">
+        <v>1.6646</v>
+      </c>
+      <c r="T59" t="str">
+        <v>1.40%</v>
+      </c>
+      <c r="U59" t="str">
+        <v>10.51%</v>
+      </c>
+      <c r="V59" t="str">
+        <v>68.45%</v>
+      </c>
+      <c r="W59" t="str">
+        <v>104.85%</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>008708</v>
+      </c>
+      <c r="B60" t="str">
+        <v>建信富时100指数(QDII)C美元现汇</v>
+      </c>
+      <c r="C60" t="str">
+        <v>151.36</v>
+      </c>
+      <c r="D60" t="str">
+        <v>0</v>
+      </c>
+      <c r="E60" t="str">
+        <v>0%</v>
+      </c>
+      <c r="F60" t="str">
+        <v>7.57</v>
+      </c>
+      <c r="G60" t="str">
+        <v>5.27%</v>
+      </c>
+      <c r="H60" t="str">
+        <v>16.02</v>
+      </c>
+      <c r="I60" t="str">
+        <v>11.15%</v>
+      </c>
+      <c r="J60" t="str">
+        <v>7.57</v>
+      </c>
+      <c r="K60" t="str">
+        <v>6.34</v>
+      </c>
+      <c r="L60" t="str">
+        <v>6.34</v>
+      </c>
+      <c r="M60" t="str">
+        <v>1.01%</v>
+      </c>
+      <c r="N60" t="str">
+        <v>748.20</v>
+      </c>
+      <c r="O60" t="str">
+        <v>2</v>
+      </c>
+      <c r="R60" t="str">
+        <v>0.1922</v>
+      </c>
+      <c r="T60" t="str">
+        <v>2.12%</v>
+      </c>
+      <c r="U60" t="str">
+        <v>6.42%</v>
+      </c>
+      <c r="V60" t="str">
+        <v>11.64%</v>
+      </c>
+      <c r="W60" t="str">
+        <v>26.75%</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>010033</v>
+      </c>
+      <c r="B61" t="str">
+        <v>安信成长精选混合A</v>
+      </c>
+      <c r="C61" t="str">
+        <v>118.33</v>
+      </c>
+      <c r="D61" t="str">
+        <v>-1.86</v>
+      </c>
+      <c r="E61" t="str">
+        <v>-1.57%</v>
+      </c>
+      <c r="F61" t="str">
+        <v>9.38</v>
+      </c>
+      <c r="G61" t="str">
+        <v>8.61%</v>
+      </c>
+      <c r="H61" t="str">
+        <v>7.52</v>
+      </c>
+      <c r="I61" t="str">
+        <v>8.61%</v>
+      </c>
+      <c r="J61" t="str">
+        <v>7.52</v>
+      </c>
+      <c r="K61" t="str">
+        <v>7.52</v>
+      </c>
+      <c r="L61" t="str">
+        <v>7.52</v>
+      </c>
+      <c r="M61" t="str">
+        <v>0.79%</v>
+      </c>
+      <c r="N61" t="str">
+        <v>73.33</v>
+      </c>
+      <c r="O61" t="str">
+        <v>1</v>
+      </c>
+      <c r="P61" t="str">
+        <v>-1.57%</v>
+      </c>
+      <c r="Q61" t="str">
+        <v>1.5883</v>
+      </c>
+      <c r="R61" t="str">
+        <v>1.4857</v>
+      </c>
+      <c r="T61" t="str">
+        <v>3.78%</v>
+      </c>
+      <c r="U61" t="str">
+        <v>8.45%</v>
+      </c>
+      <c r="V61" t="str">
+        <v>34.95%</v>
+      </c>
+      <c r="W61" t="str">
+        <v>100.69%</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>022328</v>
+      </c>
+      <c r="B62" t="str">
+        <v>宏利高端装备股票C</v>
+      </c>
+      <c r="C62" t="str">
+        <v>254.10</v>
+      </c>
+      <c r="D62" t="str">
+        <v>1.52</v>
+      </c>
+      <c r="E62" t="str">
+        <v>0.60%</v>
+      </c>
+      <c r="F62" t="str">
+        <v>32.65</v>
+      </c>
+      <c r="G62" t="str">
+        <v>14.74%</v>
+      </c>
+      <c r="H62" t="str">
+        <v>34.17</v>
+      </c>
+      <c r="I62" t="str">
+        <v>14.74%</v>
+      </c>
+      <c r="J62" t="str">
+        <v>34.17</v>
+      </c>
+      <c r="K62" t="str">
+        <v>34.17</v>
+      </c>
+      <c r="L62" t="str">
+        <v>34.17</v>
+      </c>
+      <c r="M62" t="str">
+        <v>1.70%</v>
+      </c>
+      <c r="N62" t="str">
+        <v>152.21</v>
+      </c>
+      <c r="O62" t="str">
+        <v>1</v>
+      </c>
+      <c r="P62" t="str">
+        <v>0.60%</v>
+      </c>
+      <c r="Q62" t="str">
+        <v>1.6794</v>
+      </c>
+      <c r="R62" t="str">
+        <v>1.4549</v>
+      </c>
+      <c r="T62" t="str">
+        <v>19.89%</v>
+      </c>
+      <c r="U62" t="str">
+        <v>32.66%</v>
+      </c>
+      <c r="V62" t="str">
+        <v>48.61%</v>
+      </c>
+      <c r="W62" t="str">
+        <v>67.69%</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:W57"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:W62"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4280,16 +4632,139 @@
         <v>建仓日期</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>2026-01-14</v>
+      </c>
+      <c r="B2" t="str">
+        <v>010391</v>
+      </c>
+      <c r="C2" t="str">
+        <v>易方达战略新兴产业股票A</v>
+      </c>
+      <c r="D2" t="str">
+        <v>13.71</v>
+      </c>
+      <c r="E2" t="str">
+        <v>3.83%</v>
+      </c>
+      <c r="F2" t="str">
+        <v>6.47%</v>
+      </c>
+      <c r="G2" t="str">
+        <v>-2.64%</v>
+      </c>
+      <c r="H2" t="str">
+        <v>0</v>
+      </c>
+      <c r="I2" t="str">
+        <v>1.7111</v>
+      </c>
+      <c r="J2" t="str">
+        <v>5.22%</v>
+      </c>
+      <c r="K2" t="str">
+        <v>54</v>
+      </c>
+      <c r="L2" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M2" t="str">
+        <v>2025-11-21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>2026-01-15</v>
+      </c>
+      <c r="B3" t="str">
+        <v>008708</v>
+      </c>
+      <c r="C3" t="str">
+        <v>建信富时100指数(QDII)C美元现汇</v>
+      </c>
+      <c r="D3" t="str">
+        <v>8.45</v>
+      </c>
+      <c r="E3" t="str">
+        <v>5.88%</v>
+      </c>
+      <c r="F3" t="str">
+        <v>32.27%</v>
+      </c>
+      <c r="G3" t="str">
+        <v>-26.39%</v>
+      </c>
+      <c r="H3" t="str">
+        <v>0</v>
+      </c>
+      <c r="I3" t="str">
+        <v>0.2031</v>
+      </c>
+      <c r="J3" t="str">
+        <v>-0.39%</v>
+      </c>
+      <c r="K3" t="str">
+        <v>588</v>
+      </c>
+      <c r="L3" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M3" t="str">
+        <v>2024-06-06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2026-01-15</v>
+      </c>
+      <c r="B4" t="str">
+        <v>040047</v>
+      </c>
+      <c r="C4" t="str">
+        <v>华安纳斯达克100ETF联接(QDII)A(美元现钞)</v>
+      </c>
+      <c r="D4" t="str">
+        <v>2.80</v>
+      </c>
+      <c r="E4" t="str">
+        <v>0.98%</v>
+      </c>
+      <c r="F4" t="str">
+        <v>3.48%</v>
+      </c>
+      <c r="G4" t="str">
+        <v>-2.50%</v>
+      </c>
+      <c r="H4" t="str">
+        <v>0</v>
+      </c>
+      <c r="I4" t="str">
+        <v>1.0624</v>
+      </c>
+      <c r="J4" t="str">
+        <v>-1.63%</v>
+      </c>
+      <c r="K4" t="str">
+        <v>36</v>
+      </c>
+      <c r="L4" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M4" t="str">
+        <v>2025-12-10</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M4"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K389"/>
+  <dimension ref="A1:K450"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16748,9 +17223,1985 @@
         <v>修改持仓份额为77.65;修改持有收益为34.98</v>
       </c>
     </row>
+    <row r="390">
+      <c r="A390" t="str">
+        <v>2026-01-14</v>
+      </c>
+      <c r="B390" t="str">
+        <v/>
+      </c>
+      <c r="C390" t="str">
+        <v>010391</v>
+      </c>
+      <c r="D390" t="str">
+        <v>易方达战略新兴产业股票A</v>
+      </c>
+      <c r="E390" t="str">
+        <v>转出</v>
+      </c>
+      <c r="F390" t="str">
+        <v>217.13</v>
+      </c>
+      <c r="G390" t="str">
+        <v>1.7111</v>
+      </c>
+      <c r="H390" t="str">
+        <v>371.53</v>
+      </c>
+      <c r="I390" t="str">
+        <v>371.53</v>
+      </c>
+      <c r="J390" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K390" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="str">
+        <v>2026-01-14</v>
+      </c>
+      <c r="B391" t="str">
+        <v/>
+      </c>
+      <c r="C391" t="str">
+        <v>020113</v>
+      </c>
+      <c r="D391" t="str">
+        <v>易方达中证沪港深500ETF联接发起式A</v>
+      </c>
+      <c r="E391" t="str">
+        <v>转入</v>
+      </c>
+      <c r="F391" t="str">
+        <v>239.47</v>
+      </c>
+      <c r="G391" t="str">
+        <v>1.5496</v>
+      </c>
+      <c r="H391" t="str">
+        <v>-371.53</v>
+      </c>
+      <c r="I391" t="str">
+        <v>371.53</v>
+      </c>
+      <c r="J391" t="str">
+        <v>0.45</v>
+      </c>
+      <c r="K391" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="str">
+        <v>2026-01-15</v>
+      </c>
+      <c r="B392" t="str">
+        <v/>
+      </c>
+      <c r="C392" t="str">
+        <v>014978</v>
+      </c>
+      <c r="D392" t="str">
+        <v>华安纳斯达克100ETF联接(QDII)C</v>
+      </c>
+      <c r="E392" t="str">
+        <v>转入</v>
+      </c>
+      <c r="F392" t="str">
+        <v>39.53</v>
+      </c>
+      <c r="G392" t="str">
+        <v>7.3033</v>
+      </c>
+      <c r="H392" t="str">
+        <v>-288.66</v>
+      </c>
+      <c r="I392" t="str">
+        <v>288.66</v>
+      </c>
+      <c r="J392" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K392" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="str">
+        <v>2026-01-15</v>
+      </c>
+      <c r="B393" t="str">
+        <v/>
+      </c>
+      <c r="C393" t="str">
+        <v>040047</v>
+      </c>
+      <c r="D393" t="str">
+        <v>华安纳斯达克100ETF联接(QDII)A(美元现钞)</v>
+      </c>
+      <c r="E393" t="str">
+        <v>转出</v>
+      </c>
+      <c r="F393" t="str">
+        <v>271.71</v>
+      </c>
+      <c r="G393" t="str">
+        <v>1.0624</v>
+      </c>
+      <c r="H393" t="str">
+        <v>288.66</v>
+      </c>
+      <c r="I393" t="str">
+        <v>288.66</v>
+      </c>
+      <c r="J393" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K393" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="str">
+        <v>2026-01-15</v>
+      </c>
+      <c r="B394" t="str">
+        <v/>
+      </c>
+      <c r="C394" t="str">
+        <v>008706</v>
+      </c>
+      <c r="D394" t="str">
+        <v>建信富时100指数(QDII)C人民币</v>
+      </c>
+      <c r="E394" t="str">
+        <v>转入</v>
+      </c>
+      <c r="F394" t="str">
+        <v>106.92</v>
+      </c>
+      <c r="G394" t="str">
+        <v>1.4238</v>
+      </c>
+      <c r="H394" t="str">
+        <v>-152.24</v>
+      </c>
+      <c r="I394" t="str">
+        <v>152.24</v>
+      </c>
+      <c r="J394" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K394" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="str">
+        <v>2026-01-15</v>
+      </c>
+      <c r="B395" t="str">
+        <v/>
+      </c>
+      <c r="C395" t="str">
+        <v>008708</v>
+      </c>
+      <c r="D395" t="str">
+        <v>建信富时100指数(QDII)C美元现汇</v>
+      </c>
+      <c r="E395" t="str">
+        <v>转出</v>
+      </c>
+      <c r="F395" t="str">
+        <v>749.56</v>
+      </c>
+      <c r="G395" t="str">
+        <v>0.2031</v>
+      </c>
+      <c r="H395" t="str">
+        <v>152.24</v>
+      </c>
+      <c r="I395" t="str">
+        <v>152.24</v>
+      </c>
+      <c r="J395" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K395" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="str">
+        <v>2026-01-15</v>
+      </c>
+      <c r="B396" t="str">
+        <v/>
+      </c>
+      <c r="C396" t="str">
+        <v>013466</v>
+      </c>
+      <c r="D396" t="str">
+        <v>博时智选量化多因子股票C</v>
+      </c>
+      <c r="E396" t="str">
+        <v>现金分红</v>
+      </c>
+      <c r="F396" t="str">
+        <v>0</v>
+      </c>
+      <c r="G396" t="str">
+        <v>1.2607</v>
+      </c>
+      <c r="H396" t="str">
+        <v>0.32</v>
+      </c>
+      <c r="I396" t="str">
+        <v>0.32</v>
+      </c>
+      <c r="J396" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K396" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="B397" t="str">
+        <v/>
+      </c>
+      <c r="C397" t="str">
+        <v>017387</v>
+      </c>
+      <c r="D397" t="str">
+        <v>兴全安悦稳健养老一年持有混合(FOF)Y</v>
+      </c>
+      <c r="E397" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F397" t="str">
+        <v>71.51</v>
+      </c>
+      <c r="H397" t="str">
+        <v>85.19</v>
+      </c>
+      <c r="I397" t="str">
+        <v>85.19</v>
+      </c>
+      <c r="J397" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K397" t="str">
+        <v>修改持仓份额为71.51;修改持有收益为5.19</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="B398" t="str">
+        <v/>
+      </c>
+      <c r="C398" t="str">
+        <v>096001</v>
+      </c>
+      <c r="D398" t="str">
+        <v>大成标普500等权重指数(QDII)A人民币</v>
+      </c>
+      <c r="E398" t="str">
+        <v>现金分红</v>
+      </c>
+      <c r="F398" t="str">
+        <v>0</v>
+      </c>
+      <c r="G398" t="str">
+        <v>2.682</v>
+      </c>
+      <c r="H398" t="str">
+        <v>3.82</v>
+      </c>
+      <c r="I398" t="str">
+        <v>3.82</v>
+      </c>
+      <c r="J398" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K398" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="B399" t="str">
+        <v/>
+      </c>
+      <c r="C399" t="str">
+        <v>006105</v>
+      </c>
+      <c r="D399" t="str">
+        <v>宏利印度股票(QDII)A</v>
+      </c>
+      <c r="E399" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F399" t="str">
+        <v>166.78</v>
+      </c>
+      <c r="H399" t="str">
+        <v>229.52</v>
+      </c>
+      <c r="I399" t="str">
+        <v>229.52</v>
+      </c>
+      <c r="J399" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K399" t="str">
+        <v>修改持仓份额为166.78;修改持有收益为-15.90</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="B400" t="str">
+        <v/>
+      </c>
+      <c r="C400" t="str">
+        <v>006373</v>
+      </c>
+      <c r="D400" t="str">
+        <v>国富全球科技互联混合(QDII)人民币A</v>
+      </c>
+      <c r="E400" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F400" t="str">
+        <v>23.06</v>
+      </c>
+      <c r="H400" t="str">
+        <v>116.05</v>
+      </c>
+      <c r="I400" t="str">
+        <v>116.05</v>
+      </c>
+      <c r="J400" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K400" t="str">
+        <v>修改持仓份额为23.06;修改持有收益为22.19</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="B401" t="str">
+        <v/>
+      </c>
+      <c r="C401" t="str">
+        <v>006680</v>
+      </c>
+      <c r="D401" t="str">
+        <v>广发道琼斯石油指数(QDII-LOF)C美元现汇</v>
+      </c>
+      <c r="E401" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F401" t="str">
+        <v>121.82</v>
+      </c>
+      <c r="H401" t="str">
+        <v>39.47</v>
+      </c>
+      <c r="I401" t="str">
+        <v>39.47</v>
+      </c>
+      <c r="J401" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K401" t="str">
+        <v>修改持仓份额为121.82;修改持有收益为-0.04</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="B402" t="str">
+        <v/>
+      </c>
+      <c r="C402" t="str">
+        <v>007721</v>
+      </c>
+      <c r="D402" t="str">
+        <v>天弘标普500发起(QDII-FOF)A</v>
+      </c>
+      <c r="E402" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F402" t="str">
+        <v>314.83</v>
+      </c>
+      <c r="H402" t="str">
+        <v>660.8</v>
+      </c>
+      <c r="I402" t="str">
+        <v>660.80</v>
+      </c>
+      <c r="J402" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K402" t="str">
+        <v>修改持仓份额为314.83;修改持有收益为15.17</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="B403" t="str">
+        <v/>
+      </c>
+      <c r="C403" t="str">
+        <v>007844</v>
+      </c>
+      <c r="D403" t="str">
+        <v>华宝油气C</v>
+      </c>
+      <c r="E403" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F403" t="str">
+        <v>467.96</v>
+      </c>
+      <c r="H403" t="str">
+        <v>338.9</v>
+      </c>
+      <c r="I403" t="str">
+        <v>338.90</v>
+      </c>
+      <c r="J403" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K403" t="str">
+        <v>修改持仓份额为467.96;修改持有收益为9.27</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="B404" t="str">
+        <v/>
+      </c>
+      <c r="C404" t="str">
+        <v>008708</v>
+      </c>
+      <c r="D404" t="str">
+        <v>建信富时100指数(QDII)C美元现汇</v>
+      </c>
+      <c r="E404" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F404" t="str">
+        <v>748.2</v>
+      </c>
+      <c r="H404" t="str">
+        <v>151.36</v>
+      </c>
+      <c r="I404" t="str">
+        <v>151.36</v>
+      </c>
+      <c r="J404" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K404" t="str">
+        <v>修改持仓份额为748.20;修改持有收益为7.57</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="B405" t="str">
+        <v/>
+      </c>
+      <c r="C405" t="str">
+        <v>012061</v>
+      </c>
+      <c r="D405" t="str">
+        <v>富国全球消费精选混合(QDII)美元现汇</v>
+      </c>
+      <c r="E405" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F405" t="str">
+        <v>1336.01</v>
+      </c>
+      <c r="H405" t="str">
+        <v>330.93</v>
+      </c>
+      <c r="I405" t="str">
+        <v>330.93</v>
+      </c>
+      <c r="J405" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K405" t="str">
+        <v>修改持仓份额为1336.01;修改持有收益为12.69</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="B406" t="str">
+        <v/>
+      </c>
+      <c r="C406" t="str">
+        <v>015016</v>
+      </c>
+      <c r="D406" t="str">
+        <v>华安国际龙头(DAX)ETF联接C</v>
+      </c>
+      <c r="E406" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F406" t="str">
+        <v>58.83</v>
+      </c>
+      <c r="H406" t="str">
+        <v>118.28</v>
+      </c>
+      <c r="I406" t="str">
+        <v>118.28</v>
+      </c>
+      <c r="J406" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K406" t="str">
+        <v>修改持仓份额为58.83;修改持有收益为-1.72</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="B407" t="str">
+        <v/>
+      </c>
+      <c r="C407" t="str">
+        <v>021540</v>
+      </c>
+      <c r="D407" t="str">
+        <v>华安法国CAC40ETF发起式联接(QDII)C</v>
+      </c>
+      <c r="E407" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F407" t="str">
+        <v>26.99</v>
+      </c>
+      <c r="H407" t="str">
+        <v>29.53</v>
+      </c>
+      <c r="I407" t="str">
+        <v>29.53</v>
+      </c>
+      <c r="J407" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K407" t="str">
+        <v>修改持仓份额为26.99;修改持有收益为-0.47</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="B408" t="str">
+        <v/>
+      </c>
+      <c r="C408" t="str">
+        <v>040047</v>
+      </c>
+      <c r="D408" t="str">
+        <v>华安纳斯达克100ETF联接(QDII)A(美元现钞)</v>
+      </c>
+      <c r="E408" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F408" t="str">
+        <v>243.78</v>
+      </c>
+      <c r="H408" t="str">
+        <v>254.77</v>
+      </c>
+      <c r="I408" t="str">
+        <v>254.77</v>
+      </c>
+      <c r="J408" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K408" t="str">
+        <v>修改持仓份额为243.78;修改持有收益为-2.15</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="B409" t="str">
+        <v/>
+      </c>
+      <c r="C409" t="str">
+        <v>096001</v>
+      </c>
+      <c r="D409" t="str">
+        <v>大成标普500等权重指数(QDII)A人民币</v>
+      </c>
+      <c r="E409" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F409" t="str">
+        <v>41.35</v>
+      </c>
+      <c r="H409" t="str">
+        <v>110.65</v>
+      </c>
+      <c r="I409" t="str">
+        <v>110.65</v>
+      </c>
+      <c r="J409" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K409" t="str">
+        <v>修改持仓份额为41.35;修改持有收益为4.09</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="B410" t="str">
+        <v/>
+      </c>
+      <c r="C410" t="str">
+        <v>100055</v>
+      </c>
+      <c r="D410" t="str">
+        <v>富国全球科技互联网股票(QDII)A</v>
+      </c>
+      <c r="E410" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F410" t="str">
+        <v>115.21</v>
+      </c>
+      <c r="H410" t="str">
+        <v>456.78</v>
+      </c>
+      <c r="I410" t="str">
+        <v>456.78</v>
+      </c>
+      <c r="J410" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K410" t="str">
+        <v>修改持仓份额为115.21;修改持有收益为26.95</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="B411" t="str">
+        <v/>
+      </c>
+      <c r="C411" t="str">
+        <v>162415</v>
+      </c>
+      <c r="D411" t="str">
+        <v>美国消费</v>
+      </c>
+      <c r="E411" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F411" t="str">
+        <v>88.39</v>
+      </c>
+      <c r="H411" t="str">
+        <v>271.8</v>
+      </c>
+      <c r="I411" t="str">
+        <v>271.80</v>
+      </c>
+      <c r="J411" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K411" t="str">
+        <v>修改持仓份额为88.39;修改持有收益为4.14</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="B412" t="str">
+        <v/>
+      </c>
+      <c r="C412" t="str">
+        <v>501225</v>
+      </c>
+      <c r="D412" t="str">
+        <v>景顺长城全球半导体芯片股票A(QDII-LOF)(人民币)</v>
+      </c>
+      <c r="E412" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F412" t="str">
+        <v>302.6</v>
+      </c>
+      <c r="H412" t="str">
+        <v>686.12</v>
+      </c>
+      <c r="I412" t="str">
+        <v>686.12</v>
+      </c>
+      <c r="J412" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K412" t="str">
+        <v>修改持仓份额为302.60;修改持有收益为95.20</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="B413" t="str">
+        <v/>
+      </c>
+      <c r="C413" t="str">
+        <v>001270</v>
+      </c>
+      <c r="D413" t="str">
+        <v>英大灵活配置A</v>
+      </c>
+      <c r="E413" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F413" t="str">
+        <v>169.69</v>
+      </c>
+      <c r="H413" t="str">
+        <v>269.54</v>
+      </c>
+      <c r="I413" t="str">
+        <v>269.54</v>
+      </c>
+      <c r="J413" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K413" t="str">
+        <v>修改持仓份额为169.69;修改持有收益为19.54</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="B414" t="str">
+        <v/>
+      </c>
+      <c r="C414" t="str">
+        <v>001614</v>
+      </c>
+      <c r="D414" t="str">
+        <v>东方区域发展混合</v>
+      </c>
+      <c r="E414" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F414" t="str">
+        <v>296.52</v>
+      </c>
+      <c r="H414" t="str">
+        <v>423.75</v>
+      </c>
+      <c r="I414" t="str">
+        <v>423.75</v>
+      </c>
+      <c r="J414" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K414" t="str">
+        <v>修改持仓份额为296.52;修改持有收益为-1.36</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="B415" t="str">
+        <v/>
+      </c>
+      <c r="C415" t="str">
+        <v>002170</v>
+      </c>
+      <c r="D415" t="str">
+        <v>东吴移动互联混合C</v>
+      </c>
+      <c r="E415" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F415" t="str">
+        <v>19.99</v>
+      </c>
+      <c r="H415" t="str">
+        <v>125.77</v>
+      </c>
+      <c r="I415" t="str">
+        <v>125.77</v>
+      </c>
+      <c r="J415" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K415" t="str">
+        <v>修改持仓份额为19.99;修改持有收益为13.21</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="B416" t="str">
+        <v/>
+      </c>
+      <c r="C416" t="str">
+        <v>002179</v>
+      </c>
+      <c r="D416" t="str">
+        <v>华安事件驱动量化混合A</v>
+      </c>
+      <c r="E416" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F416" t="str">
+        <v>132.16</v>
+      </c>
+      <c r="H416" t="str">
+        <v>348.38</v>
+      </c>
+      <c r="I416" t="str">
+        <v>348.38</v>
+      </c>
+      <c r="J416" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K416" t="str">
+        <v>修改持仓份额为132.16;修改持有收益为21.83</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="B417" t="str">
+        <v/>
+      </c>
+      <c r="C417" t="str">
+        <v>002611</v>
+      </c>
+      <c r="D417" t="str">
+        <v>博时黄金ETF联接C</v>
+      </c>
+      <c r="E417" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F417" t="str">
+        <v>63.25</v>
+      </c>
+      <c r="H417" t="str">
+        <v>215.35</v>
+      </c>
+      <c r="I417" t="str">
+        <v>215.35</v>
+      </c>
+      <c r="J417" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K417" t="str">
+        <v>修改持仓份额为63.25;修改持有收益为15.24</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="B418" t="str">
+        <v/>
+      </c>
+      <c r="C418" t="str">
+        <v>004206</v>
+      </c>
+      <c r="D418" t="str">
+        <v>华商元亨混合A</v>
+      </c>
+      <c r="E418" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F418" t="str">
+        <v>106.66</v>
+      </c>
+      <c r="H418" t="str">
+        <v>331.72</v>
+      </c>
+      <c r="I418" t="str">
+        <v>331.72</v>
+      </c>
+      <c r="J418" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K418" t="str">
+        <v>修改持仓份额为106.66;修改持有收益为13.66</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="B419" t="str">
+        <v/>
+      </c>
+      <c r="C419" t="str">
+        <v>005551</v>
+      </c>
+      <c r="D419" t="str">
+        <v>汇安成长优选混合C</v>
+      </c>
+      <c r="E419" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F419" t="str">
+        <v>35.28</v>
+      </c>
+      <c r="H419" t="str">
+        <v>91.62</v>
+      </c>
+      <c r="I419" t="str">
+        <v>91.62</v>
+      </c>
+      <c r="J419" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K419" t="str">
+        <v>修改持仓份额为35.28;修改持有收益为11.62</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="B420" t="str">
+        <v/>
+      </c>
+      <c r="C420" t="str">
+        <v>005693</v>
+      </c>
+      <c r="D420" t="str">
+        <v>广发中证军工ETF联接C</v>
+      </c>
+      <c r="E420" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F420" t="str">
+        <v>158.59</v>
+      </c>
+      <c r="H420" t="str">
+        <v>230.29</v>
+      </c>
+      <c r="I420" t="str">
+        <v>230.29</v>
+      </c>
+      <c r="J420" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K420" t="str">
+        <v>修改持仓份额为158.59;修改持有收益为24.75</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="B421" t="str">
+        <v/>
+      </c>
+      <c r="C421" t="str">
+        <v>006195</v>
+      </c>
+      <c r="D421" t="str">
+        <v>国金量化多因子A</v>
+      </c>
+      <c r="E421" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F421" t="str">
+        <v>27.53</v>
+      </c>
+      <c r="H421" t="str">
+        <v>90.97</v>
+      </c>
+      <c r="I421" t="str">
+        <v>90.97</v>
+      </c>
+      <c r="J421" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K421" t="str">
+        <v>修改持仓份额为27.53;修改持有收益为9.93</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="B422" t="str">
+        <v/>
+      </c>
+      <c r="C422" t="str">
+        <v>006486</v>
+      </c>
+      <c r="D422" t="str">
+        <v>广发中证1000ETF联接A</v>
+      </c>
+      <c r="E422" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F422" t="str">
+        <v>245.56</v>
+      </c>
+      <c r="H422" t="str">
+        <v>426.76</v>
+      </c>
+      <c r="I422" t="str">
+        <v>426.76</v>
+      </c>
+      <c r="J422" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K422" t="str">
+        <v>修改持仓份额为245.56;修改持有收益为34.99</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="B423" t="str">
+        <v/>
+      </c>
+      <c r="C423" t="str">
+        <v>006719</v>
+      </c>
+      <c r="D423" t="str">
+        <v>国融融盛龙头严选混合C</v>
+      </c>
+      <c r="E423" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F423" t="str">
+        <v>175.68</v>
+      </c>
+      <c r="H423" t="str">
+        <v>308.85</v>
+      </c>
+      <c r="I423" t="str">
+        <v>308.85</v>
+      </c>
+      <c r="J423" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K423" t="str">
+        <v>修改持仓份额为175.68;修改持有收益为-25.65</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="B424" t="str">
+        <v/>
+      </c>
+      <c r="C424" t="str">
+        <v>007153</v>
+      </c>
+      <c r="D424" t="str">
+        <v>汇添富中证银行ETF联接A</v>
+      </c>
+      <c r="E424" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F424" t="str">
+        <v>176.59</v>
+      </c>
+      <c r="H424" t="str">
+        <v>246.31</v>
+      </c>
+      <c r="I424" t="str">
+        <v>246.31</v>
+      </c>
+      <c r="J424" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K424" t="str">
+        <v>修改持仓份额为176.59;修改持有收益为-11.97</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="B425" t="str">
+        <v/>
+      </c>
+      <c r="C425" t="str">
+        <v>007605</v>
+      </c>
+      <c r="D425" t="str">
+        <v>嘉实沪深300红利低波动ETF联接A</v>
+      </c>
+      <c r="E425" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F425" t="str">
+        <v>55.55</v>
+      </c>
+      <c r="H425" t="str">
+        <v>69.77</v>
+      </c>
+      <c r="I425" t="str">
+        <v>69.77</v>
+      </c>
+      <c r="J425" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K425" t="str">
+        <v>修改持仓份额为55.55;修改持有收益为-1.63</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="B426" t="str">
+        <v/>
+      </c>
+      <c r="C426" t="str">
+        <v>007817</v>
+      </c>
+      <c r="D426" t="str">
+        <v>国泰中证全指通信设备ETF联接A</v>
+      </c>
+      <c r="E426" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F426" t="str">
+        <v>34.84</v>
+      </c>
+      <c r="H426" t="str">
+        <v>104.41</v>
+      </c>
+      <c r="I426" t="str">
+        <v>104.41</v>
+      </c>
+      <c r="J426" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K426" t="str">
+        <v>修改持仓份额为34.84;修改持有收益为17.35</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="B427" t="str">
+        <v/>
+      </c>
+      <c r="C427" t="str">
+        <v>008086</v>
+      </c>
+      <c r="D427" t="str">
+        <v>华夏中证5G通信主题ETF联接A</v>
+      </c>
+      <c r="E427" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F427" t="str">
+        <v>36.08</v>
+      </c>
+      <c r="H427" t="str">
+        <v>83.01</v>
+      </c>
+      <c r="I427" t="str">
+        <v>83.01</v>
+      </c>
+      <c r="J427" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K427" t="str">
+        <v>修改持仓份额为36.08;修改持有收益为10.15</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="B428" t="str">
+        <v/>
+      </c>
+      <c r="C428" t="str">
+        <v>008811</v>
+      </c>
+      <c r="D428" t="str">
+        <v>鹏华科技创新混合</v>
+      </c>
+      <c r="E428" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F428" t="str">
+        <v>222.94</v>
+      </c>
+      <c r="H428" t="str">
+        <v>418.74</v>
+      </c>
+      <c r="I428" t="str">
+        <v>418.74</v>
+      </c>
+      <c r="J428" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K428" t="str">
+        <v>修改持仓份额为222.94;修改持有收益为39.86</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="B429" t="str">
+        <v/>
+      </c>
+      <c r="C429" t="str">
+        <v>010033</v>
+      </c>
+      <c r="D429" t="str">
+        <v>安信成长精选混合A</v>
+      </c>
+      <c r="E429" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F429" t="str">
+        <v>73.33</v>
+      </c>
+      <c r="H429" t="str">
+        <v>118.33</v>
+      </c>
+      <c r="I429" t="str">
+        <v>118.33</v>
+      </c>
+      <c r="J429" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K429" t="str">
+        <v>修改持仓份额为73.33;修改持有收益为9.38</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="B430" t="str">
+        <v/>
+      </c>
+      <c r="C430" t="str">
+        <v>010052</v>
+      </c>
+      <c r="D430" t="str">
+        <v>长城久嘉创新成长混合C</v>
+      </c>
+      <c r="E430" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F430" t="str">
+        <v>85.54</v>
+      </c>
+      <c r="H430" t="str">
+        <v>241.6</v>
+      </c>
+      <c r="I430" t="str">
+        <v>241.60</v>
+      </c>
+      <c r="J430" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K430" t="str">
+        <v>修改持仓份额为85.54;修改持有收益为21.60</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="B431" t="str">
+        <v/>
+      </c>
+      <c r="C431" t="str">
+        <v>010341</v>
+      </c>
+      <c r="D431" t="str">
+        <v>招商产业精选股票A</v>
+      </c>
+      <c r="E431" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F431" t="str">
+        <v>238.27</v>
+      </c>
+      <c r="H431" t="str">
+        <v>310.54</v>
+      </c>
+      <c r="I431" t="str">
+        <v>310.54</v>
+      </c>
+      <c r="J431" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K431" t="str">
+        <v>修改持仓份额为238.27;修改持有收益为21.30</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="B432" t="str">
+        <v/>
+      </c>
+      <c r="C432" t="str">
+        <v>010391</v>
+      </c>
+      <c r="D432" t="str">
+        <v>易方达战略新兴产业股票A</v>
+      </c>
+      <c r="E432" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F432" t="str">
+        <v>251</v>
+      </c>
+      <c r="H432" t="str">
+        <v>451.93</v>
+      </c>
+      <c r="I432" t="str">
+        <v>451.93</v>
+      </c>
+      <c r="J432" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K432" t="str">
+        <v>修改持仓份额为251.00;修改持有收益为34.11</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="B433" t="str">
+        <v/>
+      </c>
+      <c r="C433" t="str">
+        <v>011937</v>
+      </c>
+      <c r="D433" t="str">
+        <v>华夏阿尔法精选混合C</v>
+      </c>
+      <c r="E433" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F433" t="str">
+        <v>262.11</v>
+      </c>
+      <c r="H433" t="str">
+        <v>266.25</v>
+      </c>
+      <c r="I433" t="str">
+        <v>266.25</v>
+      </c>
+      <c r="J433" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K433" t="str">
+        <v>修改持仓份额为262.11;修改持有收益为16.15</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="B434" t="str">
+        <v/>
+      </c>
+      <c r="C434" t="str">
+        <v>012728</v>
+      </c>
+      <c r="D434" t="str">
+        <v>国泰中证动漫游戏ETF联接A</v>
+      </c>
+      <c r="E434" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F434" t="str">
+        <v>174.81</v>
+      </c>
+      <c r="H434" t="str">
+        <v>297.98</v>
+      </c>
+      <c r="I434" t="str">
+        <v>297.98</v>
+      </c>
+      <c r="J434" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K434" t="str">
+        <v>修改持仓份额为174.81;修改持有收益为22.99</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="B435" t="str">
+        <v/>
+      </c>
+      <c r="C435" t="str">
+        <v>013048</v>
+      </c>
+      <c r="D435" t="str">
+        <v>富国中证新能源汽车指数C</v>
+      </c>
+      <c r="E435" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F435" t="str">
+        <v>236.89</v>
+      </c>
+      <c r="H435" t="str">
+        <v>283.79</v>
+      </c>
+      <c r="I435" t="str">
+        <v>283.79</v>
+      </c>
+      <c r="J435" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K435" t="str">
+        <v>修改持仓份额为236.89;修改持有收益为10.59</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="B436" t="str">
+        <v/>
+      </c>
+      <c r="C436" t="str">
+        <v>013466</v>
+      </c>
+      <c r="D436" t="str">
+        <v>博时智选量化多因子股票C</v>
+      </c>
+      <c r="E436" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F436" t="str">
+        <v>120.39</v>
+      </c>
+      <c r="H436" t="str">
+        <v>159</v>
+      </c>
+      <c r="I436" t="str">
+        <v>159.00</v>
+      </c>
+      <c r="J436" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K436" t="str">
+        <v>修改持仓份额为120.39;修改持有收益为15.70</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="B437" t="str">
+        <v/>
+      </c>
+      <c r="C437" t="str">
+        <v>017512</v>
+      </c>
+      <c r="D437" t="str">
+        <v>广发北证50成份指数A</v>
+      </c>
+      <c r="E437" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F437" t="str">
+        <v>328.07</v>
+      </c>
+      <c r="H437" t="str">
+        <v>592.59</v>
+      </c>
+      <c r="I437" t="str">
+        <v>592.59</v>
+      </c>
+      <c r="J437" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K437" t="str">
+        <v>修改持仓份额为328.07;修改持有收益为19.58</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="B438" t="str">
+        <v/>
+      </c>
+      <c r="C438" t="str">
+        <v>017963</v>
+      </c>
+      <c r="D438" t="str">
+        <v>广发医药创新混合发起式C</v>
+      </c>
+      <c r="E438" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F438" t="str">
+        <v>103.43</v>
+      </c>
+      <c r="H438" t="str">
+        <v>127.13</v>
+      </c>
+      <c r="I438" t="str">
+        <v>127.13</v>
+      </c>
+      <c r="J438" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K438" t="str">
+        <v>修改持仓份额为103.43;修改持有收益为-2.87</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="B439" t="str">
+        <v/>
+      </c>
+      <c r="C439" t="str">
+        <v>018048</v>
+      </c>
+      <c r="D439" t="str">
+        <v>申万菱信数字产业股票型发起式A</v>
+      </c>
+      <c r="E439" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F439" t="str">
+        <v>112.86</v>
+      </c>
+      <c r="H439" t="str">
+        <v>171.13</v>
+      </c>
+      <c r="I439" t="str">
+        <v>171.13</v>
+      </c>
+      <c r="J439" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K439" t="str">
+        <v>修改持仓份额为112.86;修改持有收益为35.33</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="B440" t="str">
+        <v/>
+      </c>
+      <c r="C440" t="str">
+        <v>018495</v>
+      </c>
+      <c r="D440" t="str">
+        <v>融通产业趋势臻选股票C</v>
+      </c>
+      <c r="E440" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F440" t="str">
+        <v>150.93</v>
+      </c>
+      <c r="H440" t="str">
+        <v>333.65</v>
+      </c>
+      <c r="I440" t="str">
+        <v>333.65</v>
+      </c>
+      <c r="J440" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K440" t="str">
+        <v>修改持仓份额为150.93;修改持有收益为20.74</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="B441" t="str">
+        <v/>
+      </c>
+      <c r="C441" t="str">
+        <v>018861</v>
+      </c>
+      <c r="D441" t="str">
+        <v>景顺长城量化港股通股票C</v>
+      </c>
+      <c r="E441" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F441" t="str">
+        <v>223.87</v>
+      </c>
+      <c r="H441" t="str">
+        <v>263.34</v>
+      </c>
+      <c r="I441" t="str">
+        <v>263.34</v>
+      </c>
+      <c r="J441" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K441" t="str">
+        <v>修改持仓份额为223.87;修改持有收益为4.28</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="B442" t="str">
+        <v/>
+      </c>
+      <c r="C442" t="str">
+        <v>020422</v>
+      </c>
+      <c r="D442" t="str">
+        <v>华夏中证港股通内地金融ETF发起式联接A</v>
+      </c>
+      <c r="E442" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F442" t="str">
+        <v>200.89</v>
+      </c>
+      <c r="H442" t="str">
+        <v>355.79</v>
+      </c>
+      <c r="I442" t="str">
+        <v>355.79</v>
+      </c>
+      <c r="J442" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K442" t="str">
+        <v>修改持仓份额为200.89;修改持有收益为-2.68</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="B443" t="str">
+        <v/>
+      </c>
+      <c r="C443" t="str">
+        <v>022328</v>
+      </c>
+      <c r="D443" t="str">
+        <v>宏利高端装备股票C</v>
+      </c>
+      <c r="E443" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F443" t="str">
+        <v>152.21</v>
+      </c>
+      <c r="H443" t="str">
+        <v>254.1</v>
+      </c>
+      <c r="I443" t="str">
+        <v>254.10</v>
+      </c>
+      <c r="J443" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K443" t="str">
+        <v>修改持仓份额为152.21;修改持有收益为32.65</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="B444" t="str">
+        <v/>
+      </c>
+      <c r="C444" t="str">
+        <v>025833</v>
+      </c>
+      <c r="D444" t="str">
+        <v>天弘中证电网设备主题指数发起C</v>
+      </c>
+      <c r="E444" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F444" t="str">
+        <v>157.64</v>
+      </c>
+      <c r="H444" t="str">
+        <v>192.51</v>
+      </c>
+      <c r="I444" t="str">
+        <v>192.51</v>
+      </c>
+      <c r="J444" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K444" t="str">
+        <v>修改持仓份额为157.64;修改持有收益为13.86</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="B445" t="str">
+        <v/>
+      </c>
+      <c r="C445" t="str">
+        <v>161022</v>
+      </c>
+      <c r="D445" t="str">
+        <v>富国创业板ETF联接A</v>
+      </c>
+      <c r="E445" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F445" t="str">
+        <v>239.3</v>
+      </c>
+      <c r="H445" t="str">
+        <v>287.11</v>
+      </c>
+      <c r="I445" t="str">
+        <v>287.11</v>
+      </c>
+      <c r="J445" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K445" t="str">
+        <v>修改持仓份额为239.30;修改持有收益为7.72</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="B446" t="str">
+        <v/>
+      </c>
+      <c r="C446" t="str">
+        <v>257060</v>
+      </c>
+      <c r="D446" t="str">
+        <v>国联安上证商品ETF联接A</v>
+      </c>
+      <c r="E446" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F446" t="str">
+        <v>228.6</v>
+      </c>
+      <c r="H446" t="str">
+        <v>392.4</v>
+      </c>
+      <c r="I446" t="str">
+        <v>392.40</v>
+      </c>
+      <c r="J446" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K446" t="str">
+        <v>修改持仓份额为228.60;修改持有收益为52.51</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="B447" t="str">
+        <v/>
+      </c>
+      <c r="C447" t="str">
+        <v>400032</v>
+      </c>
+      <c r="D447" t="str">
+        <v>东方主题精选混合</v>
+      </c>
+      <c r="E447" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F447" t="str">
+        <v>96.57</v>
+      </c>
+      <c r="H447" t="str">
+        <v>107.67</v>
+      </c>
+      <c r="I447" t="str">
+        <v>107.67</v>
+      </c>
+      <c r="J447" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K447" t="str">
+        <v>修改持仓份额为96.57;修改持有收益为0.44</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="B448" t="str">
+        <v/>
+      </c>
+      <c r="C448" t="str">
+        <v>501311</v>
+      </c>
+      <c r="D448" t="str">
+        <v>嘉实恒生港股通新经济指数(LOF)A</v>
+      </c>
+      <c r="E448" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F448" t="str">
+        <v>50.46</v>
+      </c>
+      <c r="H448" t="str">
+        <v>58.9</v>
+      </c>
+      <c r="I448" t="str">
+        <v>58.90</v>
+      </c>
+      <c r="J448" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K448" t="str">
+        <v>修改持仓份额为50.46;修改持有收益为-1.63</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="B449" t="str">
+        <v/>
+      </c>
+      <c r="C449" t="str">
+        <v>519180</v>
+      </c>
+      <c r="D449" t="str">
+        <v>万家180指数A</v>
+      </c>
+      <c r="E449" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F449" t="str">
+        <v>231</v>
+      </c>
+      <c r="H449" t="str">
+        <v>278.33</v>
+      </c>
+      <c r="I449" t="str">
+        <v>278.33</v>
+      </c>
+      <c r="J449" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K449" t="str">
+        <v>修改持仓份额为231.00;修改持有收益为8.90</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="B450" t="str">
+        <v/>
+      </c>
+      <c r="C450" t="str">
+        <v>519196</v>
+      </c>
+      <c r="D450" t="str">
+        <v>万家新兴蓝筹A</v>
+      </c>
+      <c r="E450" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F450" t="str">
+        <v>77.65</v>
+      </c>
+      <c r="H450" t="str">
+        <v>367.54</v>
+      </c>
+      <c r="I450" t="str">
+        <v>367.54</v>
+      </c>
+      <c r="J450" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K450" t="str">
+        <v>修改持仓份额为77.65;修改持有收益为45.84</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K389"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K450"/>
   </ignoredErrors>
 </worksheet>
 </file>